--- a/apps/load_data/2022/11/PLMOVMAE.xlsx
+++ b/apps/load_data/2022/11/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2022\HHY1122\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2022-\HHY1122\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43BCDB32-03E6-404C-B75D-DF41DD966993}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB96189-1C59-48EC-AA1C-719B1201CA92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="11040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CJ$279</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CJ$279</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12049" uniqueCount="3255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12029" uniqueCount="3252">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6712,9 +6713,6 @@
     <t>08771747</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>Mjhjfeeh11111d1flüjmhhfkgkech</t>
   </si>
   <si>
@@ -7888,9 +7886,6 @@
     <t>06567208</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -8198,9 +8193,6 @@
   </si>
   <si>
     <t>09842316</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
   </si>
   <si>
     <t>7306280HYLAM000</t>
@@ -9793,7 +9785,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -10633,10 +10625,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CJ279"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD232" sqref="AC171:AD232"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -42734,12 +42728,7 @@
       <c r="AB171" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AC171" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD171" s="1" t="s">
-        <v>2229</v>
-      </c>
+      <c r="AC171" s="3"/>
       <c r="AF171" s="1" t="s">
         <v>108</v>
       </c>
@@ -42792,16 +42781,16 @@
         <v>22</v>
       </c>
       <c r="BD171" s="1" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="BG171" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH171" s="1" t="s">
+        <v>2230</v>
+      </c>
+      <c r="BI171" s="1" t="s">
         <v>2231</v>
-      </c>
-      <c r="BI171" s="1" t="s">
-        <v>2232</v>
       </c>
       <c r="BN171" s="1" t="s">
         <v>118</v>
@@ -42816,13 +42805,13 @@
         <v>160</v>
       </c>
       <c r="BS171" s="1" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="BT171" s="3">
         <v>36225</v>
       </c>
       <c r="BU171" s="1" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="BV171" s="1" t="s">
         <v>122</v>
@@ -42843,19 +42832,19 @@
         <v>102</v>
       </c>
       <c r="CD171" s="1" t="s">
+        <v>2234</v>
+      </c>
+      <c r="CE171" s="1" t="s">
         <v>2235</v>
       </c>
-      <c r="CE171" s="1" t="s">
+      <c r="CF171" s="1" t="s">
         <v>2236</v>
       </c>
-      <c r="CF171" s="1" t="s">
+      <c r="CH171" s="1" t="s">
         <v>2237</v>
       </c>
-      <c r="CH171" s="1" t="s">
+      <c r="CI171" s="1" t="s">
         <v>2238</v>
-      </c>
-      <c r="CI171" s="1" t="s">
-        <v>2239</v>
       </c>
       <c r="CJ171" s="1" t="s">
         <v>130</v>
@@ -42893,13 +42882,13 @@
         <v>97</v>
       </c>
       <c r="K172" s="1" t="s">
+        <v>2239</v>
+      </c>
+      <c r="L172" s="1" t="s">
         <v>2240</v>
       </c>
-      <c r="L172" s="1" t="s">
+      <c r="N172" s="1" t="s">
         <v>2241</v>
-      </c>
-      <c r="N172" s="1" t="s">
-        <v>2242</v>
       </c>
       <c r="O172" s="1" t="s">
         <v>101</v>
@@ -42934,12 +42923,7 @@
       <c r="AB172" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="AC172" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD172" s="1" t="s">
-        <v>2229</v>
-      </c>
+      <c r="AC172" s="3"/>
       <c r="AF172" s="1" t="s">
         <v>108</v>
       </c>
@@ -42986,7 +42970,7 @@
         <v>102</v>
       </c>
       <c r="AZ172" s="1" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="BB172" s="1">
         <v>11</v>
@@ -42995,13 +42979,13 @@
         <v>22</v>
       </c>
       <c r="BD172" s="1" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="BG172" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH172" s="1" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="BI172" s="1" t="s">
         <v>1622</v>
@@ -43016,13 +43000,13 @@
         <v>103</v>
       </c>
       <c r="BS172" s="1" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="BT172" s="3">
         <v>36949</v>
       </c>
       <c r="BU172" s="1" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="BV172" s="1" t="s">
         <v>122</v>
@@ -43046,16 +43030,16 @@
         <v>102</v>
       </c>
       <c r="CD172" s="1" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="CE172" s="1" t="s">
         <v>1939</v>
       </c>
       <c r="CF172" s="1" t="s">
+        <v>2248</v>
+      </c>
+      <c r="CH172" s="1" t="s">
         <v>2249</v>
-      </c>
-      <c r="CH172" s="1" t="s">
-        <v>2250</v>
       </c>
       <c r="CI172" s="1" t="s">
         <v>1628</v>
@@ -43096,10 +43080,10 @@
         <v>97</v>
       </c>
       <c r="K173" s="1" t="s">
+        <v>2250</v>
+      </c>
+      <c r="L173" s="1" t="s">
         <v>2251</v>
-      </c>
-      <c r="L173" s="1" t="s">
-        <v>2252</v>
       </c>
       <c r="O173" s="1" t="s">
         <v>101</v>
@@ -43125,12 +43109,7 @@
       <c r="AB173" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="AC173" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD173" s="1" t="s">
-        <v>2229</v>
-      </c>
+      <c r="AC173" s="3"/>
       <c r="AF173" s="1" t="s">
         <v>108</v>
       </c>
@@ -43177,7 +43156,7 @@
         <v>102</v>
       </c>
       <c r="AZ173" s="1" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="BB173" s="1">
         <v>5</v>
@@ -43186,7 +43165,7 @@
         <v>22</v>
       </c>
       <c r="BD173" s="1" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="BN173" s="1" t="s">
         <v>118</v>
@@ -43222,10 +43201,10 @@
         <v>102</v>
       </c>
       <c r="CD173" s="1" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="CH173" s="1" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="CI173" s="1" t="s">
         <v>130</v>
@@ -43266,13 +43245,13 @@
         <v>97</v>
       </c>
       <c r="K174" s="1" t="s">
+        <v>2255</v>
+      </c>
+      <c r="L174" s="1" t="s">
         <v>2256</v>
       </c>
-      <c r="L174" s="1" t="s">
+      <c r="N174" s="1" t="s">
         <v>2257</v>
-      </c>
-      <c r="N174" s="1" t="s">
-        <v>2258</v>
       </c>
       <c r="O174" s="1" t="s">
         <v>101</v>
@@ -43304,12 +43283,7 @@
       <c r="AA174" s="1">
         <v>0</v>
       </c>
-      <c r="AC174" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD174" s="1" t="s">
-        <v>2229</v>
-      </c>
+      <c r="AC174" s="3"/>
       <c r="AF174" s="1" t="s">
         <v>108</v>
       </c>
@@ -43359,7 +43333,7 @@
         <v>102</v>
       </c>
       <c r="AZ174" s="1" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="BB174" s="1">
         <v>11</v>
@@ -43368,13 +43342,13 @@
         <v>22</v>
       </c>
       <c r="BD174" s="1" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="BG174" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH174" s="1" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="BN174" s="1" t="s">
         <v>118</v>
@@ -43383,7 +43357,7 @@
         <v>107</v>
       </c>
       <c r="BU174" s="1" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="BV174" s="1" t="s">
         <v>122</v>
@@ -43401,16 +43375,16 @@
         <v>102</v>
       </c>
       <c r="CD174" s="1" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="CE174" s="1" t="s">
         <v>1203</v>
       </c>
       <c r="CF174" s="1" t="s">
+        <v>2263</v>
+      </c>
+      <c r="CH174" s="1" t="s">
         <v>2264</v>
-      </c>
-      <c r="CH174" s="1" t="s">
-        <v>2265</v>
       </c>
       <c r="CI174" s="1" t="s">
         <v>130</v>
@@ -43451,13 +43425,13 @@
         <v>97</v>
       </c>
       <c r="K175" s="1" t="s">
+        <v>2265</v>
+      </c>
+      <c r="L175" s="1" t="s">
         <v>2266</v>
       </c>
-      <c r="L175" s="1" t="s">
+      <c r="N175" s="1" t="s">
         <v>2267</v>
-      </c>
-      <c r="N175" s="1" t="s">
-        <v>2268</v>
       </c>
       <c r="O175" s="1" t="s">
         <v>101</v>
@@ -43492,12 +43466,7 @@
       <c r="AB175" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AC175" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD175" s="1" t="s">
-        <v>2229</v>
-      </c>
+      <c r="AC175" s="3"/>
       <c r="AF175" s="1" t="s">
         <v>108</v>
       </c>
@@ -43547,7 +43516,7 @@
         <v>102</v>
       </c>
       <c r="AZ175" s="1" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="BB175" s="1">
         <v>11</v>
@@ -43556,13 +43525,13 @@
         <v>22</v>
       </c>
       <c r="BD175" s="1" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="BG175" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH175" s="1" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="BN175" s="1" t="s">
         <v>118</v>
@@ -43571,7 +43540,7 @@
         <v>107</v>
       </c>
       <c r="BU175" s="1" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="BV175" s="1" t="s">
         <v>122</v>
@@ -43592,13 +43561,13 @@
         <v>659</v>
       </c>
       <c r="CE175" s="1" t="s">
+        <v>2272</v>
+      </c>
+      <c r="CF175" s="1" t="s">
         <v>2273</v>
       </c>
-      <c r="CF175" s="1" t="s">
+      <c r="CH175" s="1" t="s">
         <v>2274</v>
-      </c>
-      <c r="CH175" s="1" t="s">
-        <v>2275</v>
       </c>
       <c r="CI175" s="1" t="s">
         <v>130</v>
@@ -43639,13 +43608,13 @@
         <v>97</v>
       </c>
       <c r="K176" s="1" t="s">
+        <v>2275</v>
+      </c>
+      <c r="L176" s="1" t="s">
         <v>2276</v>
       </c>
-      <c r="L176" s="1" t="s">
+      <c r="N176" s="1" t="s">
         <v>2277</v>
-      </c>
-      <c r="N176" s="1" t="s">
-        <v>2278</v>
       </c>
       <c r="O176" s="1" t="s">
         <v>101</v>
@@ -43677,12 +43646,7 @@
       <c r="AA176" s="1">
         <v>0</v>
       </c>
-      <c r="AC176" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD176" s="1" t="s">
-        <v>2229</v>
-      </c>
+      <c r="AC176" s="3"/>
       <c r="AF176" s="1" t="s">
         <v>108</v>
       </c>
@@ -43732,7 +43696,7 @@
         <v>102</v>
       </c>
       <c r="AZ176" s="1" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="BB176" s="1">
         <v>11</v>
@@ -43741,13 +43705,13 @@
         <v>22</v>
       </c>
       <c r="BD176" s="1" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="BG176" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH176" s="1" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="BI176" s="1" t="s">
         <v>724</v>
@@ -43759,7 +43723,7 @@
         <v>107</v>
       </c>
       <c r="BU176" s="1" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="BV176" s="1" t="s">
         <v>122</v>
@@ -43777,16 +43741,16 @@
         <v>102</v>
       </c>
       <c r="CD176" s="1" t="s">
+        <v>2282</v>
+      </c>
+      <c r="CE176" s="1" t="s">
+        <v>2282</v>
+      </c>
+      <c r="CF176" s="1" t="s">
         <v>2283</v>
       </c>
-      <c r="CE176" s="1" t="s">
-        <v>2283</v>
-      </c>
-      <c r="CF176" s="1" t="s">
+      <c r="CH176" s="1" t="s">
         <v>2284</v>
-      </c>
-      <c r="CH176" s="1" t="s">
-        <v>2285</v>
       </c>
       <c r="CI176" s="1" t="s">
         <v>730</v>
@@ -43827,13 +43791,13 @@
         <v>97</v>
       </c>
       <c r="K177" s="1" t="s">
+        <v>2285</v>
+      </c>
+      <c r="L177" s="1" t="s">
         <v>2286</v>
       </c>
-      <c r="L177" s="1" t="s">
+      <c r="N177" s="1" t="s">
         <v>2287</v>
-      </c>
-      <c r="N177" s="1" t="s">
-        <v>2288</v>
       </c>
       <c r="O177" s="1" t="s">
         <v>101</v>
@@ -43874,12 +43838,7 @@
       <c r="AB177" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AC177" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD177" s="1" t="s">
-        <v>2229</v>
-      </c>
+      <c r="AC177" s="3"/>
       <c r="AF177" s="1" t="s">
         <v>108</v>
       </c>
@@ -43926,7 +43885,7 @@
         <v>102</v>
       </c>
       <c r="AZ177" s="1" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="BB177" s="1">
         <v>11</v>
@@ -43935,16 +43894,16 @@
         <v>22</v>
       </c>
       <c r="BD177" s="1" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="BG177" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH177" s="1" t="s">
+        <v>2290</v>
+      </c>
+      <c r="BI177" s="1" t="s">
         <v>2291</v>
-      </c>
-      <c r="BI177" s="1" t="s">
-        <v>2292</v>
       </c>
       <c r="BN177" s="1" t="s">
         <v>118</v>
@@ -43956,13 +43915,13 @@
         <v>119</v>
       </c>
       <c r="BS177" s="1" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="BT177" s="3">
         <v>35243</v>
       </c>
       <c r="BU177" s="1" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="BV177" s="1" t="s">
         <v>122</v>
@@ -43980,19 +43939,19 @@
         <v>102</v>
       </c>
       <c r="CD177" s="1" t="s">
+        <v>2294</v>
+      </c>
+      <c r="CE177" s="1" t="s">
         <v>2295</v>
       </c>
-      <c r="CE177" s="1" t="s">
+      <c r="CF177" s="1" t="s">
         <v>2296</v>
       </c>
-      <c r="CF177" s="1" t="s">
+      <c r="CH177" s="1" t="s">
         <v>2297</v>
       </c>
-      <c r="CH177" s="1" t="s">
+      <c r="CI177" s="1" t="s">
         <v>2298</v>
-      </c>
-      <c r="CI177" s="1" t="s">
-        <v>2299</v>
       </c>
       <c r="CJ177" s="1" t="s">
         <v>130</v>
@@ -44030,13 +43989,13 @@
         <v>97</v>
       </c>
       <c r="K178" s="1" t="s">
+        <v>2299</v>
+      </c>
+      <c r="L178" s="1" t="s">
         <v>2300</v>
       </c>
-      <c r="L178" s="1" t="s">
+      <c r="N178" s="1" t="s">
         <v>2301</v>
-      </c>
-      <c r="N178" s="1" t="s">
-        <v>2302</v>
       </c>
       <c r="O178" s="1" t="s">
         <v>101</v>
@@ -44068,12 +44027,7 @@
       <c r="AA178" s="1">
         <v>0</v>
       </c>
-      <c r="AC178" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD178" s="1" t="s">
-        <v>2229</v>
-      </c>
+      <c r="AC178" s="3"/>
       <c r="AF178" s="1" t="s">
         <v>108</v>
       </c>
@@ -44123,7 +44077,7 @@
         <v>102</v>
       </c>
       <c r="AZ178" s="1" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="BB178" s="1">
         <v>11</v>
@@ -44132,13 +44086,13 @@
         <v>22</v>
       </c>
       <c r="BD178" s="1" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="BG178" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH178" s="1" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="BI178" s="1" t="s">
         <v>1128</v>
@@ -44150,7 +44104,7 @@
         <v>107</v>
       </c>
       <c r="BU178" s="1" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="BV178" s="1" t="s">
         <v>122</v>
@@ -44168,16 +44122,16 @@
         <v>102</v>
       </c>
       <c r="CD178" s="1" t="s">
+        <v>2306</v>
+      </c>
+      <c r="CE178" s="1" t="s">
         <v>2307</v>
       </c>
-      <c r="CE178" s="1" t="s">
+      <c r="CF178" s="1" t="s">
         <v>2308</v>
       </c>
-      <c r="CF178" s="1" t="s">
+      <c r="CH178" s="1" t="s">
         <v>2309</v>
-      </c>
-      <c r="CH178" s="1" t="s">
-        <v>2310</v>
       </c>
       <c r="CI178" s="1" t="s">
         <v>1134</v>
@@ -44218,13 +44172,13 @@
         <v>97</v>
       </c>
       <c r="K179" s="1" t="s">
+        <v>2310</v>
+      </c>
+      <c r="L179" s="1" t="s">
         <v>2311</v>
       </c>
-      <c r="L179" s="1" t="s">
+      <c r="N179" s="1" t="s">
         <v>2312</v>
-      </c>
-      <c r="N179" s="1" t="s">
-        <v>2313</v>
       </c>
       <c r="O179" s="1" t="s">
         <v>101</v>
@@ -44256,12 +44210,7 @@
       <c r="AA179" s="1">
         <v>0</v>
       </c>
-      <c r="AC179" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD179" s="1" t="s">
-        <v>2229</v>
-      </c>
+      <c r="AC179" s="3"/>
       <c r="AF179" s="1" t="s">
         <v>108</v>
       </c>
@@ -44311,7 +44260,7 @@
         <v>102</v>
       </c>
       <c r="AZ179" s="1" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="BB179" s="1">
         <v>11</v>
@@ -44320,13 +44269,13 @@
         <v>22</v>
       </c>
       <c r="BD179" s="1" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="BG179" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH179" s="1" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="BI179" s="1" t="s">
         <v>724</v>
@@ -44341,7 +44290,7 @@
         <v>160</v>
       </c>
       <c r="BU179" s="1" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="BV179" s="1" t="s">
         <v>122</v>
@@ -44359,16 +44308,16 @@
         <v>102</v>
       </c>
       <c r="CD179" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="CE179" s="1" t="s">
         <v>2318</v>
       </c>
-      <c r="CE179" s="1" t="s">
+      <c r="CF179" s="1" t="s">
         <v>2319</v>
       </c>
-      <c r="CF179" s="1" t="s">
+      <c r="CH179" s="1" t="s">
         <v>2320</v>
-      </c>
-      <c r="CH179" s="1" t="s">
-        <v>2321</v>
       </c>
       <c r="CI179" s="1" t="s">
         <v>730</v>
@@ -44403,19 +44352,19 @@
         <v>95</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K180" s="1" t="s">
+        <v>2322</v>
+      </c>
+      <c r="L180" s="1" t="s">
         <v>2323</v>
       </c>
-      <c r="L180" s="1" t="s">
+      <c r="N180" s="1" t="s">
         <v>2324</v>
-      </c>
-      <c r="N180" s="1" t="s">
-        <v>2325</v>
       </c>
       <c r="O180" s="1" t="s">
         <v>101</v>
@@ -44450,12 +44399,7 @@
       <c r="AA180" s="1">
         <v>0</v>
       </c>
-      <c r="AC180" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD180" s="1" t="s">
-        <v>2229</v>
-      </c>
+      <c r="AC180" s="3"/>
       <c r="AF180" s="1" t="s">
         <v>108</v>
       </c>
@@ -44505,7 +44449,7 @@
         <v>102</v>
       </c>
       <c r="AZ180" s="1" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="BB180" s="1">
         <v>11</v>
@@ -44514,13 +44458,13 @@
         <v>22</v>
       </c>
       <c r="BD180" s="1" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="BG180" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH180" s="1" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="BN180" s="1" t="s">
         <v>118</v>
@@ -44529,7 +44473,7 @@
         <v>107</v>
       </c>
       <c r="BU180" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="BV180" s="1" t="s">
         <v>122</v>
@@ -44541,7 +44485,7 @@
         <v>112</v>
       </c>
       <c r="CA180" s="1" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="CB180" s="1" t="s">
         <v>124</v>
@@ -44550,16 +44494,16 @@
         <v>102</v>
       </c>
       <c r="CD180" s="1" t="s">
+        <v>2330</v>
+      </c>
+      <c r="CE180" s="1" t="s">
         <v>2331</v>
       </c>
-      <c r="CE180" s="1" t="s">
+      <c r="CF180" s="1" t="s">
         <v>2332</v>
       </c>
-      <c r="CF180" s="1" t="s">
+      <c r="CH180" s="1" t="s">
         <v>2333</v>
-      </c>
-      <c r="CH180" s="1" t="s">
-        <v>2334</v>
       </c>
       <c r="CI180" s="1" t="s">
         <v>130</v>
@@ -44600,13 +44544,13 @@
         <v>97</v>
       </c>
       <c r="K181" s="1" t="s">
+        <v>2334</v>
+      </c>
+      <c r="L181" s="1" t="s">
         <v>2335</v>
       </c>
-      <c r="L181" s="1" t="s">
+      <c r="N181" s="1" t="s">
         <v>2336</v>
-      </c>
-      <c r="N181" s="1" t="s">
-        <v>2337</v>
       </c>
       <c r="O181" s="1" t="s">
         <v>101</v>
@@ -44638,12 +44582,7 @@
       <c r="AA181" s="1">
         <v>0</v>
       </c>
-      <c r="AC181" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD181" s="1" t="s">
-        <v>2229</v>
-      </c>
+      <c r="AC181" s="3"/>
       <c r="AF181" s="1" t="s">
         <v>108</v>
       </c>
@@ -44690,7 +44629,7 @@
         <v>102</v>
       </c>
       <c r="AZ181" s="1" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="BB181" s="1">
         <v>11</v>
@@ -44699,16 +44638,16 @@
         <v>22</v>
       </c>
       <c r="BD181" s="1" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="BG181" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH181" s="1" t="s">
+        <v>2339</v>
+      </c>
+      <c r="BI181" s="1" t="s">
         <v>2340</v>
-      </c>
-      <c r="BI181" s="1" t="s">
-        <v>2341</v>
       </c>
       <c r="BN181" s="1" t="s">
         <v>118</v>
@@ -44720,13 +44659,13 @@
         <v>119</v>
       </c>
       <c r="BS181" s="1" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="BT181" s="3">
         <v>35950</v>
       </c>
       <c r="BU181" s="1" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="BV181" s="1" t="s">
         <v>122</v>
@@ -44744,19 +44683,19 @@
         <v>102</v>
       </c>
       <c r="CD181" s="1" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="CE181" s="1" t="s">
         <v>1755</v>
       </c>
       <c r="CF181" s="1" t="s">
+        <v>2344</v>
+      </c>
+      <c r="CH181" s="1" t="s">
         <v>2345</v>
       </c>
-      <c r="CH181" s="1" t="s">
+      <c r="CI181" s="1" t="s">
         <v>2346</v>
-      </c>
-      <c r="CI181" s="1" t="s">
-        <v>2347</v>
       </c>
       <c r="CJ181" s="1" t="s">
         <v>130</v>
@@ -44794,13 +44733,13 @@
         <v>97</v>
       </c>
       <c r="K182" s="1" t="s">
+        <v>2347</v>
+      </c>
+      <c r="L182" s="1" t="s">
         <v>2348</v>
       </c>
-      <c r="L182" s="1" t="s">
+      <c r="N182" s="1" t="s">
         <v>2349</v>
-      </c>
-      <c r="N182" s="1" t="s">
-        <v>2350</v>
       </c>
       <c r="O182" s="1" t="s">
         <v>101</v>
@@ -44884,7 +44823,7 @@
         <v>102</v>
       </c>
       <c r="AZ182" s="1" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="BB182" s="1">
         <v>11</v>
@@ -44893,13 +44832,13 @@
         <v>22</v>
       </c>
       <c r="BD182" s="1" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="BG182" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH182" s="1" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="BI182" s="1" t="s">
         <v>1799</v>
@@ -44914,7 +44853,7 @@
         <v>160</v>
       </c>
       <c r="BU182" s="1" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="BV182" s="1" t="s">
         <v>122</v>
@@ -44932,16 +44871,16 @@
         <v>102</v>
       </c>
       <c r="CD182" s="1" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="CE182" s="1" t="s">
         <v>407</v>
       </c>
       <c r="CF182" s="1" t="s">
+        <v>2355</v>
+      </c>
+      <c r="CH182" s="1" t="s">
         <v>2356</v>
-      </c>
-      <c r="CH182" s="1" t="s">
-        <v>2357</v>
       </c>
       <c r="CI182" s="1" t="s">
         <v>1803</v>
@@ -44982,13 +44921,13 @@
         <v>97</v>
       </c>
       <c r="K183" s="1" t="s">
+        <v>2357</v>
+      </c>
+      <c r="L183" s="1" t="s">
         <v>2358</v>
       </c>
-      <c r="L183" s="1" t="s">
+      <c r="N183" s="1" t="s">
         <v>2359</v>
-      </c>
-      <c r="N183" s="1" t="s">
-        <v>2360</v>
       </c>
       <c r="O183" s="1" t="s">
         <v>101</v>
@@ -45066,7 +45005,7 @@
         <v>102</v>
       </c>
       <c r="AZ183" s="1" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="BB183" s="1">
         <v>11</v>
@@ -45075,13 +45014,13 @@
         <v>22</v>
       </c>
       <c r="BD183" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="BG183" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH183" s="1" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="BI183" s="1" t="s">
         <v>1809</v>
@@ -45096,13 +45035,13 @@
         <v>217</v>
       </c>
       <c r="BS183" s="1" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="BT183" s="3">
         <v>36099</v>
       </c>
       <c r="BU183" s="1" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="BV183" s="1" t="s">
         <v>122</v>
@@ -45120,16 +45059,16 @@
         <v>102</v>
       </c>
       <c r="CD183" s="1" t="s">
+        <v>2365</v>
+      </c>
+      <c r="CE183" s="1" t="s">
         <v>2366</v>
       </c>
-      <c r="CE183" s="1" t="s">
+      <c r="CF183" s="1" t="s">
         <v>2367</v>
       </c>
-      <c r="CF183" s="1" t="s">
+      <c r="CH183" s="1" t="s">
         <v>2368</v>
-      </c>
-      <c r="CH183" s="1" t="s">
-        <v>2369</v>
       </c>
       <c r="CI183" s="1" t="s">
         <v>1815</v>
@@ -45170,13 +45109,13 @@
         <v>97</v>
       </c>
       <c r="K184" s="1" t="s">
+        <v>2369</v>
+      </c>
+      <c r="L184" s="1" t="s">
         <v>2370</v>
       </c>
-      <c r="L184" s="1" t="s">
+      <c r="N184" s="1" t="s">
         <v>2371</v>
-      </c>
-      <c r="N184" s="1" t="s">
-        <v>2372</v>
       </c>
       <c r="O184" s="1" t="s">
         <v>101</v>
@@ -45251,7 +45190,7 @@
         <v>102</v>
       </c>
       <c r="AZ184" s="1" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="BB184" s="1">
         <v>11</v>
@@ -45260,16 +45199,16 @@
         <v>22</v>
       </c>
       <c r="BD184" s="1" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="BG184" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH184" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="BI184" s="1" t="s">
         <v>2375</v>
-      </c>
-      <c r="BI184" s="1" t="s">
-        <v>2376</v>
       </c>
       <c r="BN184" s="1" t="s">
         <v>118</v>
@@ -45281,13 +45220,13 @@
         <v>103</v>
       </c>
       <c r="BS184" s="1" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="BT184" s="3">
         <v>37735</v>
       </c>
       <c r="BU184" s="1" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="BV184" s="1" t="s">
         <v>122</v>
@@ -45305,19 +45244,19 @@
         <v>102</v>
       </c>
       <c r="CD184" s="1" t="s">
+        <v>2378</v>
+      </c>
+      <c r="CE184" s="1" t="s">
         <v>2379</v>
       </c>
-      <c r="CE184" s="1" t="s">
+      <c r="CF184" s="1" t="s">
         <v>2380</v>
       </c>
-      <c r="CF184" s="1" t="s">
+      <c r="CH184" s="1" t="s">
         <v>2381</v>
       </c>
-      <c r="CH184" s="1" t="s">
+      <c r="CI184" s="1" t="s">
         <v>2382</v>
-      </c>
-      <c r="CI184" s="1" t="s">
-        <v>2383</v>
       </c>
       <c r="CJ184" s="1" t="s">
         <v>130</v>
@@ -45355,13 +45294,13 @@
         <v>97</v>
       </c>
       <c r="K185" s="1" t="s">
+        <v>2383</v>
+      </c>
+      <c r="L185" s="1" t="s">
         <v>2384</v>
       </c>
-      <c r="L185" s="1" t="s">
+      <c r="N185" s="1" t="s">
         <v>2385</v>
-      </c>
-      <c r="N185" s="1" t="s">
-        <v>2386</v>
       </c>
       <c r="O185" s="1" t="s">
         <v>101</v>
@@ -45442,7 +45381,7 @@
         <v>102</v>
       </c>
       <c r="AZ185" s="1" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="BB185" s="1">
         <v>11</v>
@@ -45451,13 +45390,13 @@
         <v>22</v>
       </c>
       <c r="BD185" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="BG185" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH185" s="1" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="BI185" s="1" t="s">
         <v>365</v>
@@ -45469,7 +45408,7 @@
         <v>107</v>
       </c>
       <c r="BU185" s="1" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="BV185" s="1" t="s">
         <v>122</v>
@@ -45487,16 +45426,16 @@
         <v>102</v>
       </c>
       <c r="CD185" s="1" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="CE185" s="1" t="s">
         <v>856</v>
       </c>
       <c r="CF185" s="1" t="s">
+        <v>2391</v>
+      </c>
+      <c r="CH185" s="1" t="s">
         <v>2392</v>
-      </c>
-      <c r="CH185" s="1" t="s">
-        <v>2393</v>
       </c>
       <c r="CI185" s="1" t="s">
         <v>372</v>
@@ -45537,13 +45476,13 @@
         <v>97</v>
       </c>
       <c r="K186" s="1" t="s">
+        <v>2393</v>
+      </c>
+      <c r="L186" s="1" t="s">
         <v>2394</v>
       </c>
-      <c r="L186" s="1" t="s">
+      <c r="N186" s="1" t="s">
         <v>2395</v>
-      </c>
-      <c r="N186" s="1" t="s">
-        <v>2396</v>
       </c>
       <c r="O186" s="1" t="s">
         <v>101</v>
@@ -45582,7 +45521,7 @@
         <v>108</v>
       </c>
       <c r="AG186" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="AH186" s="1" t="s">
         <v>1861</v>
@@ -45627,7 +45566,7 @@
         <v>102</v>
       </c>
       <c r="AZ186" s="1" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="BB186" s="1">
         <v>11</v>
@@ -45636,13 +45575,13 @@
         <v>22</v>
       </c>
       <c r="BD186" s="1" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="BG186" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH186" s="1" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="BN186" s="1" t="s">
         <v>118</v>
@@ -45651,7 +45590,7 @@
         <v>107</v>
       </c>
       <c r="BU186" s="1" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="BV186" s="1" t="s">
         <v>122</v>
@@ -45672,13 +45611,13 @@
         <v>1553</v>
       </c>
       <c r="CE186" s="1" t="s">
+        <v>2401</v>
+      </c>
+      <c r="CF186" s="1" t="s">
         <v>2402</v>
       </c>
-      <c r="CF186" s="1" t="s">
+      <c r="CH186" s="1" t="s">
         <v>2403</v>
-      </c>
-      <c r="CH186" s="1" t="s">
-        <v>2404</v>
       </c>
       <c r="CI186" s="1" t="s">
         <v>130</v>
@@ -45719,13 +45658,13 @@
         <v>97</v>
       </c>
       <c r="K187" s="1" t="s">
+        <v>2404</v>
+      </c>
+      <c r="L187" s="1" t="s">
         <v>2405</v>
       </c>
-      <c r="L187" s="1" t="s">
+      <c r="N187" s="1" t="s">
         <v>2406</v>
-      </c>
-      <c r="N187" s="1" t="s">
-        <v>2407</v>
       </c>
       <c r="O187" s="1" t="s">
         <v>101</v>
@@ -45806,7 +45745,7 @@
         <v>102</v>
       </c>
       <c r="AZ187" s="1" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="BB187" s="1">
         <v>11</v>
@@ -45815,16 +45754,16 @@
         <v>22</v>
       </c>
       <c r="BD187" s="1" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="BG187" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH187" s="1" t="s">
+        <v>2409</v>
+      </c>
+      <c r="BI187" s="1" t="s">
         <v>2410</v>
-      </c>
-      <c r="BI187" s="1" t="s">
-        <v>2411</v>
       </c>
       <c r="BN187" s="1" t="s">
         <v>118</v>
@@ -45836,13 +45775,13 @@
         <v>103</v>
       </c>
       <c r="BS187" s="1" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="BT187" s="3">
         <v>43602</v>
       </c>
       <c r="BU187" s="1" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="BV187" s="1" t="s">
         <v>122</v>
@@ -45866,13 +45805,13 @@
         <v>936</v>
       </c>
       <c r="CF187" s="1" t="s">
+        <v>2413</v>
+      </c>
+      <c r="CH187" s="1" t="s">
         <v>2414</v>
       </c>
-      <c r="CH187" s="1" t="s">
+      <c r="CI187" s="1" t="s">
         <v>2415</v>
-      </c>
-      <c r="CI187" s="1" t="s">
-        <v>2416</v>
       </c>
       <c r="CJ187" s="1" t="s">
         <v>130</v>
@@ -45910,13 +45849,13 @@
         <v>97</v>
       </c>
       <c r="K188" s="1" t="s">
+        <v>2416</v>
+      </c>
+      <c r="L188" s="1" t="s">
         <v>2417</v>
       </c>
-      <c r="L188" s="1" t="s">
+      <c r="N188" s="1" t="s">
         <v>2418</v>
-      </c>
-      <c r="N188" s="1" t="s">
-        <v>2419</v>
       </c>
       <c r="O188" s="1" t="s">
         <v>101</v>
@@ -45997,7 +45936,7 @@
         <v>102</v>
       </c>
       <c r="AZ188" s="1" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="BB188" s="1">
         <v>11</v>
@@ -46006,13 +45945,13 @@
         <v>22</v>
       </c>
       <c r="BD188" s="1" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="BG188" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH188" s="1" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="BI188" s="1" t="s">
         <v>571</v>
@@ -46024,7 +45963,7 @@
         <v>107</v>
       </c>
       <c r="BU188" s="1" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="BV188" s="1" t="s">
         <v>122</v>
@@ -46042,16 +45981,16 @@
         <v>102</v>
       </c>
       <c r="CD188" s="1" t="s">
+        <v>2423</v>
+      </c>
+      <c r="CE188" s="1" t="s">
         <v>2424</v>
       </c>
-      <c r="CE188" s="1" t="s">
+      <c r="CF188" s="1" t="s">
         <v>2425</v>
       </c>
-      <c r="CF188" s="1" t="s">
+      <c r="CH188" s="1" t="s">
         <v>2426</v>
-      </c>
-      <c r="CH188" s="1" t="s">
-        <v>2427</v>
       </c>
       <c r="CI188" s="1" t="s">
         <v>577</v>
@@ -46092,13 +46031,13 @@
         <v>97</v>
       </c>
       <c r="K189" s="1" t="s">
+        <v>2427</v>
+      </c>
+      <c r="L189" s="1" t="s">
         <v>2428</v>
       </c>
-      <c r="L189" s="1" t="s">
+      <c r="N189" s="1" t="s">
         <v>2429</v>
-      </c>
-      <c r="N189" s="1" t="s">
-        <v>2430</v>
       </c>
       <c r="O189" s="1" t="s">
         <v>101</v>
@@ -46140,7 +46079,7 @@
         <v>42247</v>
       </c>
       <c r="AD189" s="1" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="AF189" s="1" t="s">
         <v>108</v>
@@ -46194,16 +46133,16 @@
         <v>22</v>
       </c>
       <c r="BD189" s="1" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="BG189" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH189" s="1" t="s">
+        <v>2432</v>
+      </c>
+      <c r="BI189" s="1" t="s">
         <v>2433</v>
-      </c>
-      <c r="BI189" s="1" t="s">
-        <v>2434</v>
       </c>
       <c r="BN189" s="1" t="s">
         <v>118</v>
@@ -46215,13 +46154,13 @@
         <v>217</v>
       </c>
       <c r="BS189" s="1" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="BT189" s="3">
         <v>36580</v>
       </c>
       <c r="BU189" s="1" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="BV189" s="1" t="s">
         <v>122</v>
@@ -46242,7 +46181,7 @@
         <v>102</v>
       </c>
       <c r="CD189" s="1" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="CE189" s="1" t="s">
         <v>288</v>
@@ -46251,10 +46190,10 @@
         <v>1582</v>
       </c>
       <c r="CH189" s="1" t="s">
+        <v>2437</v>
+      </c>
+      <c r="CI189" s="1" t="s">
         <v>2438</v>
-      </c>
-      <c r="CI189" s="1" t="s">
-        <v>2439</v>
       </c>
       <c r="CJ189" s="1" t="s">
         <v>130</v>
@@ -46292,16 +46231,16 @@
         <v>97</v>
       </c>
       <c r="K190" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="L190" s="1" t="s">
         <v>2440</v>
-      </c>
-      <c r="L190" s="1" t="s">
-        <v>2441</v>
       </c>
       <c r="M190" s="1" t="s">
         <v>103</v>
       </c>
       <c r="N190" s="1" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="O190" s="1" t="s">
         <v>101</v>
@@ -46388,13 +46327,13 @@
         <v>22</v>
       </c>
       <c r="BD190" s="1" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="BG190" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH190" s="1" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="BN190" s="1" t="s">
         <v>118</v>
@@ -46406,13 +46345,13 @@
         <v>119</v>
       </c>
       <c r="BS190" s="1" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="BT190" s="3">
         <v>37747</v>
       </c>
       <c r="BU190" s="1" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="BV190" s="1" t="s">
         <v>122</v>
@@ -46436,10 +46375,10 @@
         <v>647</v>
       </c>
       <c r="CF190" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="CH190" s="1" t="s">
         <v>2447</v>
-      </c>
-      <c r="CH190" s="1" t="s">
-        <v>2448</v>
       </c>
       <c r="CI190" s="1" t="s">
         <v>130</v>
@@ -46480,13 +46419,13 @@
         <v>97</v>
       </c>
       <c r="K191" s="1" t="s">
+        <v>2448</v>
+      </c>
+      <c r="L191" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="L191" s="1" t="s">
+      <c r="N191" s="1" t="s">
         <v>2450</v>
-      </c>
-      <c r="N191" s="1" t="s">
-        <v>2451</v>
       </c>
       <c r="O191" s="1" t="s">
         <v>101</v>
@@ -46573,13 +46512,13 @@
         <v>22</v>
       </c>
       <c r="BD191" s="1" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BG191" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH191" s="1" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="BN191" s="1" t="s">
         <v>118</v>
@@ -46588,7 +46527,7 @@
         <v>107</v>
       </c>
       <c r="BU191" s="1" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="BV191" s="1" t="s">
         <v>122</v>
@@ -46606,16 +46545,16 @@
         <v>102</v>
       </c>
       <c r="CD191" s="1" t="s">
+        <v>2454</v>
+      </c>
+      <c r="CE191" s="1" t="s">
         <v>2455</v>
       </c>
-      <c r="CE191" s="1" t="s">
+      <c r="CF191" s="1" t="s">
         <v>2456</v>
       </c>
-      <c r="CF191" s="1" t="s">
+      <c r="CH191" s="1" t="s">
         <v>2457</v>
-      </c>
-      <c r="CH191" s="1" t="s">
-        <v>2458</v>
       </c>
       <c r="CI191" s="1" t="s">
         <v>130</v>
@@ -46656,13 +46595,13 @@
         <v>97</v>
       </c>
       <c r="K192" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="L192" s="1" t="s">
         <v>2459</v>
       </c>
-      <c r="L192" s="1" t="s">
+      <c r="N192" s="1" t="s">
         <v>2460</v>
-      </c>
-      <c r="N192" s="1" t="s">
-        <v>2461</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>101</v>
@@ -46752,13 +46691,13 @@
         <v>22</v>
       </c>
       <c r="BD192" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="BG192" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH192" s="1" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="BI192" s="1" t="s">
         <v>724</v>
@@ -46773,7 +46712,7 @@
         <v>160</v>
       </c>
       <c r="BU192" s="1" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="BV192" s="1" t="s">
         <v>122</v>
@@ -46791,16 +46730,16 @@
         <v>102</v>
       </c>
       <c r="CD192" s="1" t="s">
+        <v>2464</v>
+      </c>
+      <c r="CE192" s="1" t="s">
         <v>2465</v>
       </c>
-      <c r="CE192" s="1" t="s">
+      <c r="CF192" s="1" t="s">
         <v>2466</v>
       </c>
-      <c r="CF192" s="1" t="s">
+      <c r="CH192" s="1" t="s">
         <v>2467</v>
-      </c>
-      <c r="CH192" s="1" t="s">
-        <v>2468</v>
       </c>
       <c r="CI192" s="1" t="s">
         <v>730</v>
@@ -46841,13 +46780,13 @@
         <v>97</v>
       </c>
       <c r="K193" s="1" t="s">
+        <v>2468</v>
+      </c>
+      <c r="L193" s="1" t="s">
         <v>2469</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="N193" s="1" t="s">
         <v>2470</v>
-      </c>
-      <c r="N193" s="1" t="s">
-        <v>2471</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>101</v>
@@ -46931,16 +46870,16 @@
         <v>22</v>
       </c>
       <c r="BD193" s="1" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="BG193" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH193" s="1" t="s">
+        <v>2472</v>
+      </c>
+      <c r="BI193" s="1" t="s">
         <v>2473</v>
-      </c>
-      <c r="BI193" s="1" t="s">
-        <v>2474</v>
       </c>
       <c r="BN193" s="1" t="s">
         <v>118</v>
@@ -46952,13 +46891,13 @@
         <v>103</v>
       </c>
       <c r="BS193" s="1" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="BT193" s="3">
         <v>37334</v>
       </c>
       <c r="BU193" s="1" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="BV193" s="1" t="s">
         <v>122</v>
@@ -46979,16 +46918,16 @@
         <v>497</v>
       </c>
       <c r="CE193" s="1" t="s">
+        <v>2476</v>
+      </c>
+      <c r="CF193" s="1" t="s">
         <v>2477</v>
       </c>
-      <c r="CF193" s="1" t="s">
+      <c r="CH193" s="1" t="s">
         <v>2478</v>
       </c>
-      <c r="CH193" s="1" t="s">
+      <c r="CI193" s="1" t="s">
         <v>2479</v>
-      </c>
-      <c r="CI193" s="1" t="s">
-        <v>2480</v>
       </c>
       <c r="CJ193" s="1" t="s">
         <v>130</v>
@@ -47026,13 +46965,13 @@
         <v>97</v>
       </c>
       <c r="K194" s="1" t="s">
+        <v>2480</v>
+      </c>
+      <c r="L194" s="1" t="s">
         <v>2481</v>
       </c>
-      <c r="L194" s="1" t="s">
+      <c r="N194" s="1" t="s">
         <v>2482</v>
-      </c>
-      <c r="N194" s="1" t="s">
-        <v>2483</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>101</v>
@@ -47119,19 +47058,19 @@
         <v>22</v>
       </c>
       <c r="BD194" s="1" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="BG194" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH194" s="1" t="s">
+        <v>2484</v>
+      </c>
+      <c r="BI194" s="1" t="s">
         <v>2485</v>
       </c>
-      <c r="BI194" s="1" t="s">
+      <c r="BJ194" s="1" t="s">
         <v>2486</v>
-      </c>
-      <c r="BJ194" s="1" t="s">
-        <v>2487</v>
       </c>
       <c r="BN194" s="1" t="s">
         <v>118</v>
@@ -47143,13 +47082,13 @@
         <v>103</v>
       </c>
       <c r="BS194" s="1" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="BT194" s="3">
         <v>37904</v>
       </c>
       <c r="BU194" s="1" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="BV194" s="1" t="s">
         <v>122</v>
@@ -47170,19 +47109,19 @@
         <v>936</v>
       </c>
       <c r="CE194" s="1" t="s">
+        <v>2489</v>
+      </c>
+      <c r="CF194" s="1" t="s">
         <v>2490</v>
       </c>
-      <c r="CF194" s="1" t="s">
+      <c r="CH194" s="1" t="s">
         <v>2491</v>
       </c>
-      <c r="CH194" s="1" t="s">
+      <c r="CI194" s="1" t="s">
         <v>2492</v>
       </c>
-      <c r="CI194" s="1" t="s">
+      <c r="CJ194" s="1" t="s">
         <v>2493</v>
-      </c>
-      <c r="CJ194" s="1" t="s">
-        <v>2494</v>
       </c>
     </row>
     <row r="195" spans="1:88" x14ac:dyDescent="0.25">
@@ -47217,13 +47156,13 @@
         <v>97</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>2494</v>
+      </c>
+      <c r="L195" s="1" t="s">
         <v>2495</v>
       </c>
-      <c r="L195" s="1" t="s">
+      <c r="N195" s="1" t="s">
         <v>2496</v>
-      </c>
-      <c r="N195" s="1" t="s">
-        <v>2497</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>101</v>
@@ -47310,13 +47249,13 @@
         <v>22</v>
       </c>
       <c r="BD195" s="1" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="BG195" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH195" s="1" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="BI195" s="1" t="s">
         <v>365</v>
@@ -47331,13 +47270,13 @@
         <v>119</v>
       </c>
       <c r="BS195" s="1" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="BT195" s="3">
         <v>36111</v>
       </c>
       <c r="BU195" s="1" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="BV195" s="1" t="s">
         <v>122</v>
@@ -47355,16 +47294,16 @@
         <v>102</v>
       </c>
       <c r="CD195" s="1" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="CE195" s="1" t="s">
         <v>1118</v>
       </c>
       <c r="CF195" s="1" t="s">
+        <v>2502</v>
+      </c>
+      <c r="CH195" s="1" t="s">
         <v>2503</v>
-      </c>
-      <c r="CH195" s="1" t="s">
-        <v>2504</v>
       </c>
       <c r="CI195" s="1" t="s">
         <v>372</v>
@@ -47405,13 +47344,13 @@
         <v>97</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>2504</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>2505</v>
       </c>
-      <c r="L196" s="1" t="s">
+      <c r="N196" s="1" t="s">
         <v>2506</v>
-      </c>
-      <c r="N196" s="1" t="s">
-        <v>2507</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>101</v>
@@ -47495,16 +47434,16 @@
         <v>22</v>
       </c>
       <c r="BD196" s="1" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="BG196" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH196" s="1" t="s">
+        <v>2508</v>
+      </c>
+      <c r="BI196" s="1" t="s">
         <v>2509</v>
-      </c>
-      <c r="BI196" s="1" t="s">
-        <v>2510</v>
       </c>
       <c r="BN196" s="1" t="s">
         <v>118</v>
@@ -47516,13 +47455,13 @@
         <v>119</v>
       </c>
       <c r="BS196" s="1" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="BT196" s="3">
         <v>37785</v>
       </c>
       <c r="BU196" s="1" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="BV196" s="1" t="s">
         <v>122</v>
@@ -47540,19 +47479,19 @@
         <v>102</v>
       </c>
       <c r="CD196" s="1" t="s">
+        <v>2512</v>
+      </c>
+      <c r="CE196" s="1" t="s">
         <v>2513</v>
       </c>
-      <c r="CE196" s="1" t="s">
+      <c r="CF196" s="1" t="s">
         <v>2514</v>
       </c>
-      <c r="CF196" s="1" t="s">
+      <c r="CH196" s="1" t="s">
         <v>2515</v>
       </c>
-      <c r="CH196" s="1" t="s">
+      <c r="CI196" s="1" t="s">
         <v>2516</v>
-      </c>
-      <c r="CI196" s="1" t="s">
-        <v>2517</v>
       </c>
       <c r="CJ196" s="1" t="s">
         <v>130</v>
@@ -47584,16 +47523,16 @@
         <v>95</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K197" s="1" t="s">
+        <v>2517</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>2518</v>
-      </c>
-      <c r="L197" s="1" t="s">
-        <v>2519</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>101</v>
@@ -47671,7 +47610,7 @@
         <v>20</v>
       </c>
       <c r="BD197" s="1" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="BN197" s="1" t="s">
         <v>118</v>
@@ -47686,7 +47625,7 @@
         <v>0</v>
       </c>
       <c r="CA197" s="1" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="CB197" s="1" t="s">
         <v>124</v>
@@ -47695,7 +47634,7 @@
         <v>102</v>
       </c>
       <c r="CD197" s="1" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="CH197" s="1" t="s">
         <v>130</v>
@@ -47739,13 +47678,13 @@
         <v>97</v>
       </c>
       <c r="K198" s="1" t="s">
+        <v>2520</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>2521</v>
       </c>
-      <c r="L198" s="1" t="s">
+      <c r="N198" s="1" t="s">
         <v>2522</v>
-      </c>
-      <c r="N198" s="1" t="s">
-        <v>2523</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>101</v>
@@ -47826,7 +47765,7 @@
         <v>102</v>
       </c>
       <c r="AZ198" s="1" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="BB198" s="1">
         <v>11</v>
@@ -47835,13 +47774,13 @@
         <v>22</v>
       </c>
       <c r="BD198" s="1" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="BG198" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH198" s="1" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="BN198" s="1" t="s">
         <v>118</v>
@@ -47850,7 +47789,7 @@
         <v>107</v>
       </c>
       <c r="BU198" s="1" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="BV198" s="1" t="s">
         <v>122</v>
@@ -47868,16 +47807,16 @@
         <v>102</v>
       </c>
       <c r="CD198" s="1" t="s">
+        <v>2527</v>
+      </c>
+      <c r="CE198" s="1" t="s">
         <v>2528</v>
       </c>
-      <c r="CE198" s="1" t="s">
+      <c r="CF198" s="1" t="s">
         <v>2529</v>
       </c>
-      <c r="CF198" s="1" t="s">
+      <c r="CH198" s="1" t="s">
         <v>2530</v>
-      </c>
-      <c r="CH198" s="1" t="s">
-        <v>2531</v>
       </c>
       <c r="CI198" s="1" t="s">
         <v>130</v>
@@ -47918,13 +47857,13 @@
         <v>97</v>
       </c>
       <c r="K199" s="1" t="s">
+        <v>2531</v>
+      </c>
+      <c r="L199" s="1" t="s">
         <v>2532</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="N199" s="1" t="s">
         <v>2533</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>2534</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>101</v>
@@ -48005,7 +47944,7 @@
         <v>102</v>
       </c>
       <c r="AZ199" s="1" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="BB199" s="1">
         <v>11</v>
@@ -48014,13 +47953,13 @@
         <v>22</v>
       </c>
       <c r="BD199" s="1" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="BG199" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH199" s="1" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="BI199" s="1" t="s">
         <v>1864</v>
@@ -48032,7 +47971,7 @@
         <v>107</v>
       </c>
       <c r="BU199" s="1" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="BV199" s="1" t="s">
         <v>122</v>
@@ -48050,16 +47989,16 @@
         <v>102</v>
       </c>
       <c r="CD199" s="1" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="CE199" s="1" t="s">
         <v>1096</v>
       </c>
       <c r="CF199" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="CH199" s="1" t="s">
         <v>2540</v>
-      </c>
-      <c r="CH199" s="1" t="s">
-        <v>2541</v>
       </c>
       <c r="CI199" s="1" t="s">
         <v>1870</v>
@@ -48100,13 +48039,13 @@
         <v>97</v>
       </c>
       <c r="K200" s="1" t="s">
+        <v>2541</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>2542</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>2543</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>2544</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>101</v>
@@ -48187,7 +48126,7 @@
         <v>102</v>
       </c>
       <c r="AZ200" s="1" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="BB200" s="1">
         <v>11</v>
@@ -48196,13 +48135,13 @@
         <v>22</v>
       </c>
       <c r="BD200" s="1" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="BG200" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH200" s="1" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="BN200" s="1" t="s">
         <v>118</v>
@@ -48211,7 +48150,7 @@
         <v>107</v>
       </c>
       <c r="BU200" s="1" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="BV200" s="1" t="s">
         <v>122</v>
@@ -48232,13 +48171,13 @@
         <v>1096</v>
       </c>
       <c r="CE200" s="1" t="s">
+        <v>2548</v>
+      </c>
+      <c r="CF200" s="1" t="s">
         <v>2549</v>
       </c>
-      <c r="CF200" s="1" t="s">
+      <c r="CH200" s="1" t="s">
         <v>2550</v>
-      </c>
-      <c r="CH200" s="1" t="s">
-        <v>2551</v>
       </c>
       <c r="CI200" s="1" t="s">
         <v>130</v>
@@ -48279,13 +48218,13 @@
         <v>97</v>
       </c>
       <c r="K201" s="1" t="s">
+        <v>2551</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>2552</v>
       </c>
-      <c r="L201" s="1" t="s">
+      <c r="N201" s="1" t="s">
         <v>2553</v>
-      </c>
-      <c r="N201" s="1" t="s">
-        <v>2554</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>101</v>
@@ -48366,7 +48305,7 @@
         <v>102</v>
       </c>
       <c r="AZ201" s="1" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="BB201" s="1">
         <v>11</v>
@@ -48375,13 +48314,13 @@
         <v>22</v>
       </c>
       <c r="BD201" s="1" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="BG201" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH201" s="1" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="BI201" s="1" t="s">
         <v>1864</v>
@@ -48399,13 +48338,13 @@
         <v>160</v>
       </c>
       <c r="BS201" s="1" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="BT201" s="3">
         <v>37513</v>
       </c>
       <c r="BU201" s="1" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="BV201" s="1" t="s">
         <v>122</v>
@@ -48423,16 +48362,16 @@
         <v>102</v>
       </c>
       <c r="CD201" s="1" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="CE201" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CF201" s="1" t="s">
+        <v>2560</v>
+      </c>
+      <c r="CH201" s="1" t="s">
         <v>2561</v>
-      </c>
-      <c r="CH201" s="1" t="s">
-        <v>2562</v>
       </c>
       <c r="CI201" s="1" t="s">
         <v>1870</v>
@@ -48473,13 +48412,13 @@
         <v>97</v>
       </c>
       <c r="K202" s="1" t="s">
+        <v>2562</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>2563</v>
       </c>
-      <c r="L202" s="1" t="s">
+      <c r="N202" s="1" t="s">
         <v>2564</v>
-      </c>
-      <c r="N202" s="1" t="s">
-        <v>2565</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>101</v>
@@ -48566,16 +48505,16 @@
         <v>22</v>
       </c>
       <c r="BD202" s="1" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="BG202" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH202" s="1" t="s">
+        <v>2566</v>
+      </c>
+      <c r="BI202" s="1" t="s">
         <v>2567</v>
-      </c>
-      <c r="BI202" s="1" t="s">
-        <v>2568</v>
       </c>
       <c r="BN202" s="1" t="s">
         <v>118</v>
@@ -48587,13 +48526,13 @@
         <v>217</v>
       </c>
       <c r="BS202" s="1" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="BT202" s="3">
         <v>41024</v>
       </c>
       <c r="BU202" s="1" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="BV202" s="1" t="s">
         <v>122</v>
@@ -48611,19 +48550,19 @@
         <v>102</v>
       </c>
       <c r="CD202" s="1" t="s">
+        <v>2570</v>
+      </c>
+      <c r="CE202" s="1" t="s">
         <v>2571</v>
       </c>
-      <c r="CE202" s="1" t="s">
+      <c r="CF202" s="1" t="s">
         <v>2572</v>
       </c>
-      <c r="CF202" s="1" t="s">
+      <c r="CH202" s="1" t="s">
         <v>2573</v>
       </c>
-      <c r="CH202" s="1" t="s">
+      <c r="CI202" s="1" t="s">
         <v>2574</v>
-      </c>
-      <c r="CI202" s="1" t="s">
-        <v>2575</v>
       </c>
       <c r="CJ202" s="1" t="s">
         <v>130</v>
@@ -48643,7 +48582,7 @@
         <v>410</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>102</v>
@@ -48655,16 +48594,16 @@
         <v>95</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2577</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>2578</v>
-      </c>
-      <c r="L203" s="1" t="s">
-        <v>2579</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>101</v>
@@ -48694,7 +48633,7 @@
         <v>108</v>
       </c>
       <c r="AG203" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="AH203" s="1" t="s">
         <v>1861</v>
@@ -48739,7 +48678,7 @@
         <v>102</v>
       </c>
       <c r="AZ203" s="1" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="BB203" s="1">
         <v>2</v>
@@ -48748,7 +48687,7 @@
         <v>21</v>
       </c>
       <c r="BD203" s="1" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="BN203" s="1" t="s">
         <v>118</v>
@@ -48766,7 +48705,7 @@
         <v>0</v>
       </c>
       <c r="CA203" s="1" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="CB203" s="1" t="s">
         <v>124</v>
@@ -48775,7 +48714,7 @@
         <v>102</v>
       </c>
       <c r="CD203" s="1" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="CH203" s="1" t="s">
         <v>1793</v>
@@ -48819,13 +48758,13 @@
         <v>97</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2582</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>2583</v>
       </c>
-      <c r="L204" s="1" t="s">
+      <c r="N204" s="1" t="s">
         <v>2584</v>
-      </c>
-      <c r="N204" s="1" t="s">
-        <v>2585</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>101</v>
@@ -48900,7 +48839,7 @@
         <v>102</v>
       </c>
       <c r="AZ204" s="1" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="BB204" s="1">
         <v>11</v>
@@ -48909,13 +48848,13 @@
         <v>22</v>
       </c>
       <c r="BD204" s="1" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="BG204" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH204" s="1" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="BI204" s="1" t="s">
         <v>2173</v>
@@ -48930,13 +48869,13 @@
         <v>103</v>
       </c>
       <c r="BS204" s="1" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="BT204" s="3">
         <v>37336</v>
       </c>
       <c r="BU204" s="1" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="BV204" s="1" t="s">
         <v>122</v>
@@ -48954,16 +48893,16 @@
         <v>102</v>
       </c>
       <c r="CD204" s="1" t="s">
+        <v>2590</v>
+      </c>
+      <c r="CE204" s="1" t="s">
         <v>2591</v>
       </c>
-      <c r="CE204" s="1" t="s">
+      <c r="CF204" s="1" t="s">
         <v>2592</v>
       </c>
-      <c r="CF204" s="1" t="s">
+      <c r="CH204" s="1" t="s">
         <v>2593</v>
-      </c>
-      <c r="CH204" s="1" t="s">
-        <v>2594</v>
       </c>
       <c r="CI204" s="1" t="s">
         <v>2176</v>
@@ -49004,13 +48943,13 @@
         <v>97</v>
       </c>
       <c r="K205" s="1" t="s">
+        <v>2594</v>
+      </c>
+      <c r="L205" s="1" t="s">
         <v>2595</v>
       </c>
-      <c r="L205" s="1" t="s">
+      <c r="N205" s="1" t="s">
         <v>2596</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>2597</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>101</v>
@@ -49091,7 +49030,7 @@
         <v>102</v>
       </c>
       <c r="AZ205" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="BB205" s="1">
         <v>11</v>
@@ -49100,16 +49039,16 @@
         <v>22</v>
       </c>
       <c r="BD205" s="1" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="BG205" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH205" s="1" t="s">
+        <v>2599</v>
+      </c>
+      <c r="BI205" s="1" t="s">
         <v>2600</v>
-      </c>
-      <c r="BI205" s="1" t="s">
-        <v>2601</v>
       </c>
       <c r="BN205" s="1" t="s">
         <v>118</v>
@@ -49118,7 +49057,7 @@
         <v>107</v>
       </c>
       <c r="BU205" s="1" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="BV205" s="1" t="s">
         <v>122</v>
@@ -49136,19 +49075,19 @@
         <v>102</v>
       </c>
       <c r="CD205" s="1" t="s">
+        <v>2602</v>
+      </c>
+      <c r="CE205" s="1" t="s">
         <v>2603</v>
       </c>
-      <c r="CE205" s="1" t="s">
+      <c r="CF205" s="1" t="s">
         <v>2604</v>
       </c>
-      <c r="CF205" s="1" t="s">
+      <c r="CH205" s="1" t="s">
         <v>2605</v>
       </c>
-      <c r="CH205" s="1" t="s">
+      <c r="CI205" s="1" t="s">
         <v>2606</v>
-      </c>
-      <c r="CI205" s="1" t="s">
-        <v>2607</v>
       </c>
       <c r="CJ205" s="1" t="s">
         <v>130</v>
@@ -49186,13 +49125,13 @@
         <v>97</v>
       </c>
       <c r="K206" s="1" t="s">
+        <v>2607</v>
+      </c>
+      <c r="L206" s="1" t="s">
         <v>2608</v>
       </c>
-      <c r="L206" s="1" t="s">
+      <c r="N206" s="1" t="s">
         <v>2609</v>
-      </c>
-      <c r="N206" s="1" t="s">
-        <v>2610</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>101</v>
@@ -49282,13 +49221,13 @@
         <v>22</v>
       </c>
       <c r="BD206" s="1" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="BG206" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH206" s="1" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="BN206" s="1" t="s">
         <v>118</v>
@@ -49297,7 +49236,7 @@
         <v>107</v>
       </c>
       <c r="BU206" s="1" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="BV206" s="1" t="s">
         <v>122</v>
@@ -49315,16 +49254,16 @@
         <v>102</v>
       </c>
       <c r="CD206" s="1" t="s">
+        <v>2613</v>
+      </c>
+      <c r="CE206" s="1" t="s">
         <v>2614</v>
       </c>
-      <c r="CE206" s="1" t="s">
+      <c r="CF206" s="1" t="s">
         <v>2615</v>
       </c>
-      <c r="CF206" s="1" t="s">
+      <c r="CH206" s="1" t="s">
         <v>2616</v>
-      </c>
-      <c r="CH206" s="1" t="s">
-        <v>2617</v>
       </c>
       <c r="CI206" s="1" t="s">
         <v>130</v>
@@ -49365,13 +49304,13 @@
         <v>97</v>
       </c>
       <c r="K207" s="1" t="s">
+        <v>2617</v>
+      </c>
+      <c r="L207" s="1" t="s">
         <v>2618</v>
       </c>
-      <c r="L207" s="1" t="s">
+      <c r="N207" s="1" t="s">
         <v>2619</v>
-      </c>
-      <c r="N207" s="1" t="s">
-        <v>2620</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>101</v>
@@ -49409,12 +49348,7 @@
       <c r="AA207" s="1">
         <v>0</v>
       </c>
-      <c r="AC207" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD207" s="1" t="s">
-        <v>2621</v>
-      </c>
+      <c r="AC207" s="3"/>
       <c r="AF207" s="1" t="s">
         <v>108</v>
       </c>
@@ -49464,7 +49398,7 @@
         <v>102</v>
       </c>
       <c r="AZ207" s="1" t="s">
-        <v>2622</v>
+        <v>2620</v>
       </c>
       <c r="BB207" s="1">
         <v>11</v>
@@ -49473,16 +49407,16 @@
         <v>22</v>
       </c>
       <c r="BD207" s="1" t="s">
-        <v>2623</v>
+        <v>2621</v>
       </c>
       <c r="BG207" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH207" s="1" t="s">
-        <v>2624</v>
+        <v>2622</v>
       </c>
       <c r="BI207" s="1" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
       <c r="BN207" s="1" t="s">
         <v>118</v>
@@ -49491,7 +49425,7 @@
         <v>107</v>
       </c>
       <c r="BU207" s="1" t="s">
-        <v>2626</v>
+        <v>2624</v>
       </c>
       <c r="BV207" s="1" t="s">
         <v>122</v>
@@ -49515,16 +49449,16 @@
         <v>1144</v>
       </c>
       <c r="CE207" s="1" t="s">
+        <v>2625</v>
+      </c>
+      <c r="CF207" s="1" t="s">
+        <v>2626</v>
+      </c>
+      <c r="CH207" s="1" t="s">
         <v>2627</v>
       </c>
-      <c r="CF207" s="1" t="s">
+      <c r="CI207" s="1" t="s">
         <v>2628</v>
-      </c>
-      <c r="CH207" s="1" t="s">
-        <v>2629</v>
-      </c>
-      <c r="CI207" s="1" t="s">
-        <v>2630</v>
       </c>
       <c r="CJ207" s="1" t="s">
         <v>130</v>
@@ -49544,7 +49478,7 @@
         <v>91</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>102</v>
@@ -49556,16 +49490,16 @@
         <v>95</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K208" s="1" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
       <c r="L208" s="1" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>112</v>
@@ -49589,7 +49523,7 @@
         <v>108</v>
       </c>
       <c r="AG208" s="1" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
       <c r="AH208" s="1" t="s">
         <v>361</v>
@@ -49643,10 +49577,10 @@
         <v>102</v>
       </c>
       <c r="CD208" s="1" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="CF208" s="1" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="209" spans="1:88" x14ac:dyDescent="0.25">
@@ -49663,7 +49597,7 @@
         <v>1780</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>102</v>
@@ -49675,16 +49609,16 @@
         <v>95</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>2638</v>
+        <v>2636</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>2639</v>
+        <v>2637</v>
       </c>
       <c r="L209" s="1" t="s">
-        <v>2640</v>
+        <v>2638</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>112</v>
@@ -49711,7 +49645,7 @@
         <v>108</v>
       </c>
       <c r="AG209" s="1" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
       <c r="AH209" s="1" t="s">
         <v>361</v>
@@ -49756,7 +49690,7 @@
         <v>0</v>
       </c>
       <c r="CA209" s="1" t="s">
-        <v>2641</v>
+        <v>2639</v>
       </c>
       <c r="CB209" s="1" t="s">
         <v>124</v>
@@ -49765,10 +49699,10 @@
         <v>102</v>
       </c>
       <c r="CD209" s="1" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="CF209" s="1" t="s">
-        <v>2640</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="210" spans="1:88" x14ac:dyDescent="0.25">
@@ -49785,7 +49719,7 @@
         <v>410</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>2642</v>
+        <v>2640</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>102</v>
@@ -49797,16 +49731,16 @@
         <v>95</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>2643</v>
+        <v>2641</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>2644</v>
+        <v>2642</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>2645</v>
+        <v>2643</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>112</v>
@@ -49833,7 +49767,7 @@
         <v>108</v>
       </c>
       <c r="AG210" s="1" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
       <c r="AH210" s="1" t="s">
         <v>361</v>
@@ -49878,7 +49812,7 @@
         <v>0</v>
       </c>
       <c r="CA210" s="1" t="s">
-        <v>2646</v>
+        <v>2644</v>
       </c>
       <c r="CB210" s="1" t="s">
         <v>124</v>
@@ -49887,10 +49821,10 @@
         <v>102</v>
       </c>
       <c r="CD210" s="1" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="CF210" s="1" t="s">
-        <v>2645</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="211" spans="1:88" x14ac:dyDescent="0.25">
@@ -49907,7 +49841,7 @@
         <v>91</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>93</v>
@@ -49919,16 +49853,16 @@
         <v>95</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>2648</v>
+        <v>2646</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>2649</v>
+        <v>2647</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>2650</v>
+        <v>2648</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>112</v>
@@ -50000,7 +49934,7 @@
         <v>0</v>
       </c>
       <c r="CA211" s="1" t="s">
-        <v>2651</v>
+        <v>2649</v>
       </c>
       <c r="CB211" s="1" t="s">
         <v>124</v>
@@ -50009,10 +49943,10 @@
         <v>102</v>
       </c>
       <c r="CD211" s="1" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="CF211" s="1" t="s">
-        <v>2650</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="212" spans="1:88" x14ac:dyDescent="0.25">
@@ -50029,7 +49963,7 @@
         <v>91</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>93</v>
@@ -50041,16 +49975,16 @@
         <v>95</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>2652</v>
+        <v>2650</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>2653</v>
+        <v>2651</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>112</v>
@@ -50128,10 +50062,10 @@
         <v>102</v>
       </c>
       <c r="CD212" s="1" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="CF212" s="1" t="s">
-        <v>2653</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="213" spans="1:88" x14ac:dyDescent="0.25">
@@ -50148,7 +50082,7 @@
         <v>91</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>93</v>
@@ -50160,16 +50094,16 @@
         <v>95</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>2648</v>
+        <v>2646</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>2654</v>
+        <v>2652</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>2655</v>
+        <v>2653</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>112</v>
@@ -50241,7 +50175,7 @@
         <v>0</v>
       </c>
       <c r="CA213" s="1" t="s">
-        <v>2651</v>
+        <v>2649</v>
       </c>
       <c r="CB213" s="1" t="s">
         <v>124</v>
@@ -50250,10 +50184,10 @@
         <v>102</v>
       </c>
       <c r="CD213" s="1" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="CF213" s="1" t="s">
-        <v>2655</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="214" spans="1:88" x14ac:dyDescent="0.25">
@@ -50270,7 +50204,7 @@
         <v>410</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>2642</v>
+        <v>2640</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>93</v>
@@ -50282,16 +50216,16 @@
         <v>95</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>2643</v>
+        <v>2641</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>2656</v>
+        <v>2654</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>2657</v>
+        <v>2655</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>112</v>
@@ -50363,7 +50297,7 @@
         <v>0</v>
       </c>
       <c r="CA214" s="1" t="s">
-        <v>2646</v>
+        <v>2644</v>
       </c>
       <c r="CB214" s="1" t="s">
         <v>124</v>
@@ -50372,10 +50306,10 @@
         <v>102</v>
       </c>
       <c r="CD214" s="1" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="CF214" s="1" t="s">
-        <v>2657</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="215" spans="1:88" x14ac:dyDescent="0.25">
@@ -50410,13 +50344,13 @@
         <v>97</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2656</v>
+      </c>
+      <c r="L215" s="1" t="s">
+        <v>2657</v>
+      </c>
+      <c r="N215" s="1" t="s">
         <v>2658</v>
-      </c>
-      <c r="L215" s="1" t="s">
-        <v>2659</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2660</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>101</v>
@@ -50448,12 +50382,7 @@
       <c r="AA215" s="1">
         <v>0</v>
       </c>
-      <c r="AC215" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD215" s="1" t="s">
-        <v>2621</v>
-      </c>
+      <c r="AC215" s="3"/>
       <c r="AF215" s="1" t="s">
         <v>108</v>
       </c>
@@ -50506,13 +50435,13 @@
         <v>22</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2661</v>
+        <v>2659</v>
       </c>
       <c r="BG215" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH215" s="1" t="s">
-        <v>2662</v>
+        <v>2660</v>
       </c>
       <c r="BI215" s="1" t="s">
         <v>365</v>
@@ -50527,13 +50456,13 @@
         <v>103</v>
       </c>
       <c r="BS215" s="1" t="s">
-        <v>2663</v>
+        <v>2661</v>
       </c>
       <c r="BT215" s="3">
         <v>36306</v>
       </c>
       <c r="BU215" s="1" t="s">
-        <v>2664</v>
+        <v>2662</v>
       </c>
       <c r="BV215" s="1" t="s">
         <v>122</v>
@@ -50551,16 +50480,16 @@
         <v>102</v>
       </c>
       <c r="CD215" s="1" t="s">
+        <v>2663</v>
+      </c>
+      <c r="CE215" s="1" t="s">
+        <v>2664</v>
+      </c>
+      <c r="CF215" s="1" t="s">
         <v>2665</v>
       </c>
-      <c r="CE215" s="1" t="s">
+      <c r="CH215" s="1" t="s">
         <v>2666</v>
-      </c>
-      <c r="CF215" s="1" t="s">
-        <v>2667</v>
-      </c>
-      <c r="CH215" s="1" t="s">
-        <v>2668</v>
       </c>
       <c r="CI215" s="1" t="s">
         <v>372</v>
@@ -50601,13 +50530,13 @@
         <v>97</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2667</v>
+      </c>
+      <c r="L216" s="1" t="s">
+        <v>2668</v>
+      </c>
+      <c r="N216" s="1" t="s">
         <v>2669</v>
-      </c>
-      <c r="L216" s="1" t="s">
-        <v>2670</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2671</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>101</v>
@@ -50639,12 +50568,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2621</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>108</v>
       </c>
@@ -50700,13 +50624,13 @@
         <v>22</v>
       </c>
       <c r="BD216" s="1" t="s">
-        <v>2672</v>
+        <v>2670</v>
       </c>
       <c r="BG216" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="BN216" s="1" t="s">
         <v>118</v>
@@ -50715,7 +50639,7 @@
         <v>107</v>
       </c>
       <c r="BU216" s="1" t="s">
-        <v>2674</v>
+        <v>2672</v>
       </c>
       <c r="BV216" s="1" t="s">
         <v>122</v>
@@ -50733,16 +50657,16 @@
         <v>102</v>
       </c>
       <c r="CD216" s="1" t="s">
-        <v>2675</v>
+        <v>2673</v>
       </c>
       <c r="CE216" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CF216" s="1" t="s">
-        <v>2676</v>
+        <v>2674</v>
       </c>
       <c r="CH216" s="1" t="s">
-        <v>2677</v>
+        <v>2675</v>
       </c>
       <c r="CI216" s="1" t="s">
         <v>130</v>
@@ -50783,13 +50707,13 @@
         <v>97</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2676</v>
+      </c>
+      <c r="L217" s="1" t="s">
+        <v>2677</v>
+      </c>
+      <c r="N217" s="1" t="s">
         <v>2678</v>
-      </c>
-      <c r="L217" s="1" t="s">
-        <v>2679</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2680</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>101</v>
@@ -50824,12 +50748,7 @@
       <c r="AB217" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AC217" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2621</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>108</v>
       </c>
@@ -50882,16 +50801,16 @@
         <v>22</v>
       </c>
       <c r="BD217" s="1" t="s">
-        <v>2681</v>
+        <v>2679</v>
       </c>
       <c r="BG217" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2682</v>
+        <v>2680</v>
       </c>
       <c r="BI217" s="1" t="s">
-        <v>2683</v>
+        <v>2681</v>
       </c>
       <c r="BN217" s="1" t="s">
         <v>118</v>
@@ -50903,13 +50822,13 @@
         <v>103</v>
       </c>
       <c r="BS217" s="1" t="s">
-        <v>2684</v>
+        <v>2682</v>
       </c>
       <c r="BT217" s="3">
         <v>38234</v>
       </c>
       <c r="BU217" s="1" t="s">
-        <v>2685</v>
+        <v>2683</v>
       </c>
       <c r="BV217" s="1" t="s">
         <v>122</v>
@@ -50927,19 +50846,19 @@
         <v>102</v>
       </c>
       <c r="CD217" s="1" t="s">
-        <v>2686</v>
+        <v>2684</v>
       </c>
       <c r="CE217" s="1" t="s">
         <v>986</v>
       </c>
       <c r="CF217" s="1" t="s">
+        <v>2685</v>
+      </c>
+      <c r="CH217" s="1" t="s">
+        <v>2686</v>
+      </c>
+      <c r="CI217" s="1" t="s">
         <v>2687</v>
-      </c>
-      <c r="CH217" s="1" t="s">
-        <v>2688</v>
-      </c>
-      <c r="CI217" s="1" t="s">
-        <v>2689</v>
       </c>
       <c r="CJ217" s="1" t="s">
         <v>130</v>
@@ -50977,13 +50896,13 @@
         <v>97</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2688</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>2689</v>
+      </c>
+      <c r="N218" s="1" t="s">
         <v>2690</v>
-      </c>
-      <c r="L218" s="1" t="s">
-        <v>2691</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2692</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>101</v>
@@ -51015,12 +50934,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2621</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>108</v>
       </c>
@@ -51076,13 +50990,13 @@
         <v>22</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
       <c r="BG218" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH218" s="1" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
       <c r="BI218" s="1" t="s">
         <v>571</v>
@@ -51094,7 +51008,7 @@
         <v>107</v>
       </c>
       <c r="BU218" s="1" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
       <c r="BV218" s="1" t="s">
         <v>122</v>
@@ -51112,16 +51026,16 @@
         <v>102</v>
       </c>
       <c r="CD218" s="1" t="s">
+        <v>2694</v>
+      </c>
+      <c r="CE218" s="1" t="s">
+        <v>2695</v>
+      </c>
+      <c r="CF218" s="1" t="s">
         <v>2696</v>
       </c>
-      <c r="CE218" s="1" t="s">
+      <c r="CH218" s="1" t="s">
         <v>2697</v>
-      </c>
-      <c r="CF218" s="1" t="s">
-        <v>2698</v>
-      </c>
-      <c r="CH218" s="1" t="s">
-        <v>2699</v>
       </c>
       <c r="CI218" s="1" t="s">
         <v>577</v>
@@ -51162,13 +51076,13 @@
         <v>97</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2698</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>2699</v>
+      </c>
+      <c r="N219" s="1" t="s">
         <v>2700</v>
-      </c>
-      <c r="L219" s="1" t="s">
-        <v>2701</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2702</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>101</v>
@@ -51200,12 +51114,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2621</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>108</v>
       </c>
@@ -51258,16 +51167,16 @@
         <v>22</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2703</v>
+        <v>2701</v>
       </c>
       <c r="BG219" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2704</v>
+        <v>2702</v>
       </c>
       <c r="BI219" s="1" t="s">
-        <v>2705</v>
+        <v>2703</v>
       </c>
       <c r="BN219" s="1" t="s">
         <v>118</v>
@@ -51279,13 +51188,13 @@
         <v>217</v>
       </c>
       <c r="BS219" s="1" t="s">
-        <v>2706</v>
+        <v>2704</v>
       </c>
       <c r="BT219" s="3">
         <v>37069</v>
       </c>
       <c r="BU219" s="1" t="s">
-        <v>2707</v>
+        <v>2705</v>
       </c>
       <c r="BV219" s="1" t="s">
         <v>122</v>
@@ -51306,16 +51215,16 @@
         <v>740</v>
       </c>
       <c r="CE219" s="1" t="s">
+        <v>2706</v>
+      </c>
+      <c r="CF219" s="1" t="s">
+        <v>2707</v>
+      </c>
+      <c r="CH219" s="1" t="s">
         <v>2708</v>
       </c>
-      <c r="CF219" s="1" t="s">
+      <c r="CI219" s="1" t="s">
         <v>2709</v>
-      </c>
-      <c r="CH219" s="1" t="s">
-        <v>2710</v>
-      </c>
-      <c r="CI219" s="1" t="s">
-        <v>2711</v>
       </c>
       <c r="CJ219" s="1" t="s">
         <v>130</v>
@@ -51353,13 +51262,13 @@
         <v>97</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2710</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>2711</v>
+      </c>
+      <c r="N220" s="1" t="s">
         <v>2712</v>
-      </c>
-      <c r="L220" s="1" t="s">
-        <v>2713</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2714</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>101</v>
@@ -51391,12 +51300,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2621</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>108</v>
       </c>
@@ -51452,13 +51356,13 @@
         <v>22</v>
       </c>
       <c r="BD220" s="1" t="s">
-        <v>2715</v>
+        <v>2713</v>
       </c>
       <c r="BG220" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH220" s="1" t="s">
-        <v>2716</v>
+        <v>2714</v>
       </c>
       <c r="BN220" s="1" t="s">
         <v>118</v>
@@ -51467,7 +51371,7 @@
         <v>107</v>
       </c>
       <c r="BU220" s="1" t="s">
-        <v>2717</v>
+        <v>2715</v>
       </c>
       <c r="BV220" s="1" t="s">
         <v>122</v>
@@ -51485,16 +51389,16 @@
         <v>102</v>
       </c>
       <c r="CD220" s="1" t="s">
+        <v>2716</v>
+      </c>
+      <c r="CE220" s="1" t="s">
+        <v>2717</v>
+      </c>
+      <c r="CF220" s="1" t="s">
         <v>2718</v>
       </c>
-      <c r="CE220" s="1" t="s">
+      <c r="CH220" s="1" t="s">
         <v>2719</v>
-      </c>
-      <c r="CF220" s="1" t="s">
-        <v>2720</v>
-      </c>
-      <c r="CH220" s="1" t="s">
-        <v>2721</v>
       </c>
       <c r="CI220" s="1" t="s">
         <v>130</v>
@@ -51535,13 +51439,13 @@
         <v>97</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2720</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>2721</v>
+      </c>
+      <c r="N221" s="1" t="s">
         <v>2722</v>
-      </c>
-      <c r="L221" s="1" t="s">
-        <v>2723</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2724</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>101</v>
@@ -51573,12 +51477,7 @@
       <c r="AA221" s="1">
         <v>0</v>
       </c>
-      <c r="AC221" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD221" s="1" t="s">
-        <v>2725</v>
-      </c>
+      <c r="AC221" s="3"/>
       <c r="AF221" s="1" t="s">
         <v>108</v>
       </c>
@@ -51625,7 +51524,7 @@
         <v>102</v>
       </c>
       <c r="AZ221" s="1" t="s">
-        <v>2726</v>
+        <v>2723</v>
       </c>
       <c r="BB221" s="1">
         <v>11</v>
@@ -51634,16 +51533,16 @@
         <v>22</v>
       </c>
       <c r="BD221" s="1" t="s">
-        <v>2727</v>
+        <v>2724</v>
       </c>
       <c r="BG221" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2728</v>
+        <v>2725</v>
       </c>
       <c r="BI221" s="1" t="s">
-        <v>2729</v>
+        <v>2726</v>
       </c>
       <c r="BN221" s="1" t="s">
         <v>118</v>
@@ -51655,13 +51554,13 @@
         <v>217</v>
       </c>
       <c r="BS221" s="1" t="s">
-        <v>2730</v>
+        <v>2727</v>
       </c>
       <c r="BT221" s="3">
         <v>35125</v>
       </c>
       <c r="BU221" s="1" t="s">
-        <v>2731</v>
+        <v>2728</v>
       </c>
       <c r="BV221" s="1" t="s">
         <v>122</v>
@@ -51679,19 +51578,19 @@
         <v>102</v>
       </c>
       <c r="CD221" s="1" t="s">
-        <v>2732</v>
+        <v>2729</v>
       </c>
       <c r="CE221" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CF221" s="1" t="s">
-        <v>2733</v>
+        <v>2730</v>
       </c>
       <c r="CH221" s="1" t="s">
-        <v>2734</v>
+        <v>2731</v>
       </c>
       <c r="CI221" s="1" t="s">
-        <v>2735</v>
+        <v>2732</v>
       </c>
       <c r="CJ221" s="1" t="s">
         <v>130</v>
@@ -51729,13 +51628,13 @@
         <v>97</v>
       </c>
       <c r="K222" s="1" t="s">
-        <v>2736</v>
+        <v>2733</v>
       </c>
       <c r="L222" s="1" t="s">
-        <v>2737</v>
+        <v>2734</v>
       </c>
       <c r="N222" s="1" t="s">
-        <v>2738</v>
+        <v>2735</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>101</v>
@@ -51774,7 +51673,7 @@
         <v>108</v>
       </c>
       <c r="AG222" s="1" t="s">
-        <v>2739</v>
+        <v>2736</v>
       </c>
       <c r="AH222" s="1" t="s">
         <v>2086</v>
@@ -51825,7 +51724,7 @@
         <v>22</v>
       </c>
       <c r="BD222" s="1" t="s">
-        <v>2740</v>
+        <v>2737</v>
       </c>
       <c r="BG222" s="1" t="s">
         <v>115</v>
@@ -51834,7 +51733,7 @@
         <v>118</v>
       </c>
       <c r="BU222" s="1" t="s">
-        <v>2741</v>
+        <v>2738</v>
       </c>
       <c r="BV222" s="1" t="s">
         <v>122</v>
@@ -51852,13 +51751,13 @@
         <v>102</v>
       </c>
       <c r="CD222" s="1" t="s">
-        <v>2742</v>
+        <v>2739</v>
       </c>
       <c r="CE222" s="1" t="s">
-        <v>2743</v>
+        <v>2740</v>
       </c>
       <c r="CF222" s="1" t="s">
-        <v>2744</v>
+        <v>2741</v>
       </c>
       <c r="CH222" s="1" t="s">
         <v>130</v>
@@ -51902,16 +51801,16 @@
         <v>97</v>
       </c>
       <c r="K223" s="1" t="s">
-        <v>2745</v>
+        <v>2742</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>2746</v>
+        <v>2743</v>
       </c>
       <c r="M223" s="1" t="s">
         <v>103</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>2747</v>
+        <v>2744</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>101</v>
@@ -52001,13 +51900,13 @@
         <v>22</v>
       </c>
       <c r="BD223" s="1" t="s">
-        <v>2748</v>
+        <v>2745</v>
       </c>
       <c r="BG223" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2749</v>
+        <v>2746</v>
       </c>
       <c r="BN223" s="1" t="s">
         <v>118</v>
@@ -52016,7 +51915,7 @@
         <v>107</v>
       </c>
       <c r="BU223" s="1" t="s">
-        <v>2750</v>
+        <v>2747</v>
       </c>
       <c r="BV223" s="1" t="s">
         <v>122</v>
@@ -52037,13 +51936,13 @@
         <v>322</v>
       </c>
       <c r="CE223" s="1" t="s">
-        <v>2751</v>
+        <v>2748</v>
       </c>
       <c r="CF223" s="1" t="s">
-        <v>2752</v>
+        <v>2749</v>
       </c>
       <c r="CH223" s="1" t="s">
-        <v>2753</v>
+        <v>2750</v>
       </c>
       <c r="CI223" s="1" t="s">
         <v>130</v>
@@ -52084,13 +51983,13 @@
         <v>97</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>2754</v>
+        <v>2751</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>2755</v>
+        <v>2752</v>
       </c>
       <c r="N224" s="1" t="s">
-        <v>2756</v>
+        <v>2753</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>101</v>
@@ -52177,16 +52076,16 @@
         <v>22</v>
       </c>
       <c r="BD224" s="1" t="s">
-        <v>2757</v>
+        <v>2754</v>
       </c>
       <c r="BG224" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2758</v>
+        <v>2755</v>
       </c>
       <c r="BI224" s="1" t="s">
-        <v>2759</v>
+        <v>2756</v>
       </c>
       <c r="BN224" s="1" t="s">
         <v>118</v>
@@ -52198,13 +52097,13 @@
         <v>217</v>
       </c>
       <c r="BS224" s="1" t="s">
-        <v>2760</v>
+        <v>2757</v>
       </c>
       <c r="BT224" s="3">
         <v>34307</v>
       </c>
       <c r="BU224" s="1" t="s">
-        <v>2761</v>
+        <v>2758</v>
       </c>
       <c r="BV224" s="1" t="s">
         <v>122</v>
@@ -52222,19 +52121,19 @@
         <v>102</v>
       </c>
       <c r="CD224" s="1" t="s">
-        <v>2762</v>
+        <v>2759</v>
       </c>
       <c r="CE224" s="1" t="s">
         <v>407</v>
       </c>
       <c r="CF224" s="1" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="CH224" s="1" t="s">
-        <v>2764</v>
+        <v>2761</v>
       </c>
       <c r="CI224" s="1" t="s">
-        <v>2765</v>
+        <v>2762</v>
       </c>
       <c r="CJ224" s="1" t="s">
         <v>130</v>
@@ -52254,7 +52153,7 @@
         <v>410</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>2766</v>
+        <v>2763</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>93</v>
@@ -52266,22 +52165,22 @@
         <v>95</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>2767</v>
+        <v>2764</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>2765</v>
+      </c>
+      <c r="L225" s="1" t="s">
+        <v>2766</v>
+      </c>
+      <c r="M225" s="1" t="s">
+        <v>2767</v>
+      </c>
+      <c r="N225" s="1" t="s">
         <v>2768</v>
-      </c>
-      <c r="L225" s="1" t="s">
-        <v>2769</v>
-      </c>
-      <c r="M225" s="1" t="s">
-        <v>2770</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>2771</v>
       </c>
       <c r="Q225" s="3">
         <v>17060</v>
@@ -52317,13 +52216,13 @@
         <v>42628</v>
       </c>
       <c r="AD225" s="1" t="s">
-        <v>2772</v>
+        <v>2769</v>
       </c>
       <c r="AF225" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AG225" s="1" t="s">
-        <v>2773</v>
+        <v>2770</v>
       </c>
       <c r="AH225" s="1" t="s">
         <v>137</v>
@@ -52368,22 +52267,22 @@
         <v>102</v>
       </c>
       <c r="AZ225" s="1" t="s">
+        <v>2771</v>
+      </c>
+      <c r="BB225" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC225" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD225" s="1" t="s">
+        <v>2772</v>
+      </c>
+      <c r="BH225" s="1" t="s">
+        <v>2773</v>
+      </c>
+      <c r="BI225" s="1" t="s">
         <v>2774</v>
-      </c>
-      <c r="BB225" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC225" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD225" s="1" t="s">
-        <v>2775</v>
-      </c>
-      <c r="BH225" s="1" t="s">
-        <v>2776</v>
-      </c>
-      <c r="BI225" s="1" t="s">
-        <v>2777</v>
       </c>
       <c r="BN225" s="1" t="s">
         <v>118</v>
@@ -52392,7 +52291,7 @@
         <v>107</v>
       </c>
       <c r="BU225" s="1" t="s">
-        <v>2778</v>
+        <v>2775</v>
       </c>
       <c r="BV225" s="1" t="s">
         <v>122</v>
@@ -52401,7 +52300,7 @@
         <v>0</v>
       </c>
       <c r="CA225" s="1" t="s">
-        <v>2779</v>
+        <v>2776</v>
       </c>
       <c r="CB225" s="1" t="s">
         <v>124</v>
@@ -52416,13 +52315,13 @@
         <v>126</v>
       </c>
       <c r="CF225" s="1" t="s">
-        <v>2780</v>
+        <v>2777</v>
       </c>
       <c r="CH225" s="1" t="s">
-        <v>2781</v>
+        <v>2778</v>
       </c>
       <c r="CI225" s="1" t="s">
-        <v>2782</v>
+        <v>2779</v>
       </c>
       <c r="CJ225" s="1" t="s">
         <v>130</v>
@@ -52436,13 +52335,13 @@
         <v>89</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>2783</v>
+        <v>2780</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>2767</v>
+        <v>2764</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>2784</v>
+        <v>2781</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>102</v>
@@ -52454,22 +52353,22 @@
         <v>95</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>2785</v>
+        <v>2782</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K226" s="1" t="s">
-        <v>2786</v>
+        <v>2783</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>2787</v>
+        <v>2784</v>
       </c>
       <c r="M226" s="1" t="s">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="N226" s="1" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="Q226" s="3">
         <v>26864</v>
@@ -52502,7 +52401,7 @@
         <v>42735</v>
       </c>
       <c r="AD226" s="1" t="s">
-        <v>2789</v>
+        <v>2786</v>
       </c>
       <c r="AF226" s="1" t="s">
         <v>108</v>
@@ -52556,10 +52455,10 @@
         <v>0</v>
       </c>
       <c r="BD226" s="1" t="s">
-        <v>2790</v>
+        <v>2787</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
       <c r="BN226" s="1" t="s">
         <v>118</v>
@@ -52571,13 +52470,13 @@
         <v>217</v>
       </c>
       <c r="BS226" s="1" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
       <c r="BT226" s="3">
         <v>102</v>
       </c>
       <c r="BU226" s="1" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="BV226" s="1" t="s">
         <v>122</v>
@@ -52589,7 +52488,7 @@
         <v>112</v>
       </c>
       <c r="CA226" s="1" t="s">
-        <v>2794</v>
+        <v>2791</v>
       </c>
       <c r="CB226" s="1" t="s">
         <v>124</v>
@@ -52598,16 +52497,16 @@
         <v>102</v>
       </c>
       <c r="CD226" s="1" t="s">
-        <v>2795</v>
+        <v>2792</v>
       </c>
       <c r="CE226" s="1" t="s">
-        <v>2796</v>
+        <v>2793</v>
       </c>
       <c r="CF226" s="1" t="s">
-        <v>2797</v>
+        <v>2794</v>
       </c>
       <c r="CH226" s="1" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="CI226" s="1" t="s">
         <v>130</v>
@@ -52627,7 +52526,7 @@
         <v>245</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>2798</v>
+        <v>2795</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>92</v>
@@ -52648,16 +52547,16 @@
         <v>97</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>2799</v>
+        <v>2796</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>2800</v>
+        <v>2797</v>
       </c>
       <c r="M227" s="1" t="s">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="N227" s="1" t="s">
-        <v>2801</v>
+        <v>2798</v>
       </c>
       <c r="Q227" s="3">
         <v>25379</v>
@@ -52687,7 +52586,7 @@
         <v>39800</v>
       </c>
       <c r="AD227" s="1" t="s">
-        <v>2802</v>
+        <v>2799</v>
       </c>
       <c r="AF227" s="1" t="s">
         <v>231</v>
@@ -52741,10 +52640,10 @@
         <v>0</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>2803</v>
+        <v>2800</v>
       </c>
       <c r="BH227" s="1" t="s">
-        <v>2804</v>
+        <v>2801</v>
       </c>
       <c r="BN227" s="1" t="s">
         <v>118</v>
@@ -52756,13 +52655,13 @@
         <v>1600</v>
       </c>
       <c r="BS227" s="1" t="s">
-        <v>2805</v>
+        <v>2802</v>
       </c>
       <c r="BT227" s="3">
         <v>35915</v>
       </c>
       <c r="BU227" s="1" t="s">
-        <v>2806</v>
+        <v>2803</v>
       </c>
       <c r="BV227" s="1" t="s">
         <v>122</v>
@@ -52792,10 +52691,10 @@
         <v>624</v>
       </c>
       <c r="CF227" s="1" t="s">
-        <v>2807</v>
+        <v>2804</v>
       </c>
       <c r="CH227" s="1" t="s">
-        <v>2781</v>
+        <v>2778</v>
       </c>
       <c r="CI227" s="1" t="s">
         <v>130</v>
@@ -52818,7 +52717,7 @@
         <v>91</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>2808</v>
+        <v>2805</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>102</v>
@@ -52830,22 +52729,22 @@
         <v>95</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>2810</v>
+        <v>2807</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>2811</v>
+        <v>2808</v>
       </c>
       <c r="M228" s="1" t="s">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="N228" s="1" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="Q228" s="3">
         <v>17470</v>
@@ -52875,7 +52774,7 @@
         <v>43100</v>
       </c>
       <c r="AD228" s="1" t="s">
-        <v>2772</v>
+        <v>2769</v>
       </c>
       <c r="AF228" s="1" t="s">
         <v>108</v>
@@ -52932,10 +52831,10 @@
         <v>0</v>
       </c>
       <c r="BD228" s="1" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
       <c r="BH228" s="1" t="s">
-        <v>2814</v>
+        <v>2811</v>
       </c>
       <c r="BN228" s="1" t="s">
         <v>118</v>
@@ -52944,7 +52843,7 @@
         <v>107</v>
       </c>
       <c r="BU228" s="1" t="s">
-        <v>2815</v>
+        <v>2812</v>
       </c>
       <c r="BV228" s="1" t="s">
         <v>122</v>
@@ -52968,16 +52867,16 @@
         <v>102</v>
       </c>
       <c r="CD228" s="1" t="s">
-        <v>2816</v>
+        <v>2813</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>2817</v>
+        <v>2814</v>
       </c>
       <c r="CF228" s="1" t="s">
-        <v>2818</v>
+        <v>2815</v>
       </c>
       <c r="CH228" s="1" t="s">
-        <v>2781</v>
+        <v>2778</v>
       </c>
       <c r="CI228" s="1" t="s">
         <v>130</v>
@@ -53000,7 +52899,7 @@
         <v>91</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>102</v>
@@ -53012,22 +52911,22 @@
         <v>95</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>2648</v>
+        <v>2646</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>2819</v>
+        <v>2816</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>2820</v>
+        <v>2817</v>
       </c>
       <c r="M229" s="1" t="s">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="N229" s="1" t="s">
-        <v>2821</v>
+        <v>2818</v>
       </c>
       <c r="Q229" s="3">
         <v>23356</v>
@@ -53057,7 +52956,7 @@
         <v>43105</v>
       </c>
       <c r="AD229" s="1" t="s">
-        <v>2822</v>
+        <v>2819</v>
       </c>
       <c r="AF229" s="1" t="s">
         <v>108</v>
@@ -53111,10 +53010,10 @@
         <v>0</v>
       </c>
       <c r="BD229" s="1" t="s">
-        <v>2823</v>
+        <v>2820</v>
       </c>
       <c r="BH229" s="1" t="s">
-        <v>2824</v>
+        <v>2821</v>
       </c>
       <c r="BN229" s="1" t="s">
         <v>118</v>
@@ -53126,13 +53025,13 @@
         <v>103</v>
       </c>
       <c r="BS229" s="1" t="s">
-        <v>2825</v>
+        <v>2822</v>
       </c>
       <c r="BT229" s="3">
         <v>34412</v>
       </c>
       <c r="BU229" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="BV229" s="1" t="s">
         <v>122</v>
@@ -53141,7 +53040,7 @@
         <v>0</v>
       </c>
       <c r="CA229" s="1" t="s">
-        <v>2651</v>
+        <v>2649</v>
       </c>
       <c r="CB229" s="1" t="s">
         <v>124</v>
@@ -53150,16 +53049,16 @@
         <v>102</v>
       </c>
       <c r="CD229" s="1" t="s">
+        <v>2824</v>
+      </c>
+      <c r="CE229" s="1" t="s">
+        <v>2825</v>
+      </c>
+      <c r="CF229" s="1" t="s">
+        <v>2826</v>
+      </c>
+      <c r="CH229" s="1" t="s">
         <v>2827</v>
-      </c>
-      <c r="CE229" s="1" t="s">
-        <v>2828</v>
-      </c>
-      <c r="CF229" s="1" t="s">
-        <v>2829</v>
-      </c>
-      <c r="CH229" s="1" t="s">
-        <v>2830</v>
       </c>
       <c r="CI229" s="1" t="s">
         <v>130</v>
@@ -53182,7 +53081,7 @@
         <v>1780</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>93</v>
@@ -53194,22 +53093,22 @@
         <v>95</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>2638</v>
+        <v>2636</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>2831</v>
+        <v>2828</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>2832</v>
+        <v>2829</v>
       </c>
       <c r="M230" s="1" t="s">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>2833</v>
+        <v>2830</v>
       </c>
       <c r="Q230" s="3">
         <v>17726</v>
@@ -53245,7 +53144,7 @@
         <v>43312</v>
       </c>
       <c r="AD230" s="1" t="s">
-        <v>2772</v>
+        <v>2769</v>
       </c>
       <c r="AF230" s="1" t="s">
         <v>231</v>
@@ -53296,7 +53195,7 @@
         <v>102</v>
       </c>
       <c r="AZ230" s="1" t="s">
-        <v>2834</v>
+        <v>2831</v>
       </c>
       <c r="BB230" s="1">
         <v>0</v>
@@ -53305,10 +53204,10 @@
         <v>0</v>
       </c>
       <c r="BD230" s="1" t="s">
-        <v>2835</v>
+        <v>2832</v>
       </c>
       <c r="BH230" s="1" t="s">
-        <v>2836</v>
+        <v>2833</v>
       </c>
       <c r="BN230" s="1" t="s">
         <v>118</v>
@@ -53317,7 +53216,7 @@
         <v>107</v>
       </c>
       <c r="BU230" s="1" t="s">
-        <v>2837</v>
+        <v>2834</v>
       </c>
       <c r="BV230" s="1" t="s">
         <v>122</v>
@@ -53326,7 +53225,7 @@
         <v>0</v>
       </c>
       <c r="CA230" s="1" t="s">
-        <v>2641</v>
+        <v>2639</v>
       </c>
       <c r="CB230" s="1" t="s">
         <v>124</v>
@@ -53335,16 +53234,16 @@
         <v>102</v>
       </c>
       <c r="CD230" s="1" t="s">
-        <v>2838</v>
+        <v>2835</v>
       </c>
       <c r="CE230" s="1" t="s">
-        <v>2839</v>
+        <v>2836</v>
       </c>
       <c r="CF230" s="1" t="s">
         <v>880</v>
       </c>
       <c r="CH230" s="1" t="s">
-        <v>2781</v>
+        <v>2778</v>
       </c>
       <c r="CI230" s="1" t="s">
         <v>130</v>
@@ -53367,7 +53266,7 @@
         <v>91</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>2840</v>
+        <v>2837</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>93</v>
@@ -53379,22 +53278,22 @@
         <v>95</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>2841</v>
+        <v>2838</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>2842</v>
+        <v>2839</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>2843</v>
+        <v>2840</v>
       </c>
       <c r="M231" s="1" t="s">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>2844</v>
+        <v>2841</v>
       </c>
       <c r="Q231" s="3">
         <v>17041</v>
@@ -53421,13 +53320,13 @@
         <v>42735</v>
       </c>
       <c r="AD231" s="1" t="s">
-        <v>2772</v>
+        <v>2769</v>
       </c>
       <c r="AF231" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AG231" s="1" t="s">
-        <v>2739</v>
+        <v>2736</v>
       </c>
       <c r="AH231" s="1" t="s">
         <v>2086</v>
@@ -53478,7 +53377,7 @@
         <v>0</v>
       </c>
       <c r="BD231" s="1" t="s">
-        <v>2845</v>
+        <v>2842</v>
       </c>
       <c r="BN231" s="1" t="s">
         <v>118</v>
@@ -53487,7 +53386,7 @@
         <v>107</v>
       </c>
       <c r="BU231" s="1" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
       <c r="BV231" s="1" t="s">
         <v>122</v>
@@ -53499,7 +53398,7 @@
         <v>112</v>
       </c>
       <c r="CA231" s="1" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="CB231" s="1" t="s">
         <v>124</v>
@@ -53508,13 +53407,13 @@
         <v>102</v>
       </c>
       <c r="CD231" s="1" t="s">
-        <v>2848</v>
+        <v>2845</v>
       </c>
       <c r="CE231" s="1" t="s">
-        <v>2849</v>
+        <v>2846</v>
       </c>
       <c r="CF231" s="1" t="s">
-        <v>2850</v>
+        <v>2847</v>
       </c>
       <c r="CH231" s="1" t="s">
         <v>130</v>
@@ -53540,7 +53439,7 @@
         <v>1780</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>2851</v>
+        <v>2848</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>102</v>
@@ -53552,22 +53451,22 @@
         <v>95</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>2853</v>
+        <v>2850</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>2854</v>
+        <v>2851</v>
       </c>
       <c r="M232" s="1" t="s">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>2855</v>
+        <v>2852</v>
       </c>
       <c r="Q232" s="3">
         <v>30147</v>
@@ -53593,17 +53492,12 @@
       <c r="AA232" s="1">
         <v>0</v>
       </c>
-      <c r="AC232" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD232" s="1" t="s">
-        <v>2621</v>
-      </c>
+      <c r="AC232" s="3"/>
       <c r="AF232" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AG232" s="1" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
       <c r="AH232" s="1" t="s">
         <v>361</v>
@@ -53651,10 +53545,10 @@
         <v>0</v>
       </c>
       <c r="BD232" s="1" t="s">
-        <v>2856</v>
+        <v>2853</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>2857</v>
+        <v>2854</v>
       </c>
       <c r="BN232" s="1" t="s">
         <v>118</v>
@@ -53666,13 +53560,13 @@
         <v>103</v>
       </c>
       <c r="BS232" s="1" t="s">
-        <v>2858</v>
+        <v>2855</v>
       </c>
       <c r="BT232" s="3">
         <v>37124</v>
       </c>
       <c r="BU232" s="1" t="s">
-        <v>2859</v>
+        <v>2856</v>
       </c>
       <c r="BV232" s="1" t="s">
         <v>122</v>
@@ -53681,7 +53575,7 @@
         <v>0</v>
       </c>
       <c r="CA232" s="1" t="s">
-        <v>2860</v>
+        <v>2857</v>
       </c>
       <c r="CB232" s="1" t="s">
         <v>124</v>
@@ -53690,16 +53584,16 @@
         <v>102</v>
       </c>
       <c r="CD232" s="1" t="s">
-        <v>2861</v>
+        <v>2858</v>
       </c>
       <c r="CE232" s="1" t="s">
         <v>1118</v>
       </c>
       <c r="CF232" s="1" t="s">
-        <v>2862</v>
+        <v>2859</v>
       </c>
       <c r="CH232" s="1" t="s">
-        <v>2830</v>
+        <v>2827</v>
       </c>
       <c r="CI232" s="1" t="s">
         <v>130</v>
@@ -53722,7 +53616,7 @@
         <v>91</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>2863</v>
+        <v>2860</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>102</v>
@@ -53734,22 +53628,22 @@
         <v>95</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>2865</v>
+        <v>2862</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>2866</v>
+        <v>2863</v>
       </c>
       <c r="M233" s="1" t="s">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="N233" s="1" t="s">
-        <v>2867</v>
+        <v>2864</v>
       </c>
       <c r="Q233" s="3">
         <v>17821</v>
@@ -53788,7 +53682,7 @@
         <v>43388</v>
       </c>
       <c r="AD233" s="1" t="s">
-        <v>2772</v>
+        <v>2769</v>
       </c>
       <c r="AF233" s="1" t="s">
         <v>108</v>
@@ -53839,25 +53733,25 @@
         <v>102</v>
       </c>
       <c r="AZ233" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="BB233" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC233" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD233" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="BE233" s="1" t="s">
+        <v>2867</v>
+      </c>
+      <c r="BF233" s="1" t="s">
         <v>2868</v>
       </c>
-      <c r="BB233" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC233" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD233" s="1" t="s">
+      <c r="BH233" s="1" t="s">
         <v>2869</v>
-      </c>
-      <c r="BE233" s="1" t="s">
-        <v>2870</v>
-      </c>
-      <c r="BF233" s="1" t="s">
-        <v>2871</v>
-      </c>
-      <c r="BH233" s="1" t="s">
-        <v>2872</v>
       </c>
       <c r="BN233" s="1" t="s">
         <v>118</v>
@@ -53866,7 +53760,7 @@
         <v>107</v>
       </c>
       <c r="BU233" s="1" t="s">
-        <v>2873</v>
+        <v>2870</v>
       </c>
       <c r="BV233" s="1" t="s">
         <v>122</v>
@@ -53875,7 +53769,7 @@
         <v>0</v>
       </c>
       <c r="CA233" s="1" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
       <c r="CB233" s="1" t="s">
         <v>124</v>
@@ -53884,16 +53778,16 @@
         <v>102</v>
       </c>
       <c r="CD233" s="1" t="s">
-        <v>2875</v>
+        <v>2872</v>
       </c>
       <c r="CE233" s="1" t="s">
-        <v>2876</v>
+        <v>2873</v>
       </c>
       <c r="CF233" s="1" t="s">
         <v>483</v>
       </c>
       <c r="CH233" s="1" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="CI233" s="1" t="s">
         <v>130</v>
@@ -53913,7 +53807,7 @@
         <v>245</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>2798</v>
+        <v>2795</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>92</v>
@@ -53934,16 +53828,16 @@
         <v>97</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>2799</v>
+        <v>2796</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>2877</v>
+        <v>2874</v>
       </c>
       <c r="M234" s="1" t="s">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="N234" s="1" t="s">
-        <v>2801</v>
+        <v>2798</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>101</v>
@@ -53976,7 +53870,7 @@
         <v>43980</v>
       </c>
       <c r="AD234" s="1" t="s">
-        <v>2878</v>
+        <v>2875</v>
       </c>
       <c r="AF234" s="1" t="s">
         <v>108</v>
@@ -54030,10 +53924,10 @@
         <v>20</v>
       </c>
       <c r="BD234" s="1" t="s">
-        <v>2803</v>
+        <v>2800</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="BN234" s="1" t="s">
         <v>118</v>
@@ -54045,13 +53939,13 @@
         <v>1600</v>
       </c>
       <c r="BS234" s="1" t="s">
-        <v>2805</v>
+        <v>2802</v>
       </c>
       <c r="BT234" s="3">
         <v>35915</v>
       </c>
       <c r="BU234" s="1" t="s">
-        <v>2806</v>
+        <v>2803</v>
       </c>
       <c r="BV234" s="1" t="s">
         <v>122</v>
@@ -54075,7 +53969,7 @@
         <v>624</v>
       </c>
       <c r="CF234" s="1" t="s">
-        <v>2807</v>
+        <v>2804</v>
       </c>
       <c r="CH234" s="1" t="s">
         <v>1793</v>
@@ -54113,22 +54007,22 @@
         <v>95</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>2880</v>
+        <v>2877</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>2881</v>
+        <v>2878</v>
       </c>
       <c r="M235" s="1" t="s">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="N235" s="1" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>101</v>
@@ -54164,7 +54058,7 @@
         <v>44135</v>
       </c>
       <c r="AD235" s="1" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="AF235" s="1" t="s">
         <v>108</v>
@@ -54221,10 +54115,10 @@
         <v>20</v>
       </c>
       <c r="BD235" s="1" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>2885</v>
+        <v>2882</v>
       </c>
       <c r="BN235" s="1" t="s">
         <v>118</v>
@@ -54233,7 +54127,7 @@
         <v>107</v>
       </c>
       <c r="BU235" s="1" t="s">
-        <v>2886</v>
+        <v>2883</v>
       </c>
       <c r="BV235" s="1" t="s">
         <v>122</v>
@@ -54242,7 +54136,7 @@
         <v>0</v>
       </c>
       <c r="CA235" s="1" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="CB235" s="1" t="s">
         <v>124</v>
@@ -54254,10 +54148,10 @@
         <v>1235</v>
       </c>
       <c r="CE235" s="1" t="s">
-        <v>2887</v>
+        <v>2884</v>
       </c>
       <c r="CF235" s="1" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="CH235" s="1" t="s">
         <v>1793</v>
@@ -54274,10 +54168,10 @@
         <v>88</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>1210</v>
@@ -54292,7 +54186,7 @@
         <v>94</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="I236" s="1" t="s">
         <v>1210</v>
@@ -54301,13 +54195,13 @@
         <v>92</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>2892</v>
+        <v>2889</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>2893</v>
+        <v>2890</v>
       </c>
       <c r="N236" s="1" t="s">
-        <v>2894</v>
+        <v>2891</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>101</v>
@@ -54361,7 +54255,7 @@
         <v>0</v>
       </c>
       <c r="AN236" s="1" t="s">
-        <v>2895</v>
+        <v>2892</v>
       </c>
       <c r="AO236" s="1">
         <v>0</v>
@@ -54394,19 +54288,19 @@
         <v>22</v>
       </c>
       <c r="BD236" s="1" t="s">
-        <v>2896</v>
+        <v>2893</v>
       </c>
       <c r="BG236" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>2897</v>
+        <v>2894</v>
       </c>
       <c r="BN236" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU236" s="1" t="s">
-        <v>2898</v>
+        <v>2895</v>
       </c>
       <c r="BV236" s="1" t="s">
         <v>122</v>
@@ -54424,16 +54318,16 @@
         <v>102</v>
       </c>
       <c r="CD236" s="1" t="s">
-        <v>2899</v>
+        <v>2896</v>
       </c>
       <c r="CE236" s="1" t="s">
         <v>301</v>
       </c>
       <c r="CF236" s="1" t="s">
-        <v>2900</v>
+        <v>2897</v>
       </c>
       <c r="CH236" s="1" t="s">
-        <v>2901</v>
+        <v>2898</v>
       </c>
       <c r="CI236" s="1" t="s">
         <v>130</v>
@@ -54447,10 +54341,10 @@
         <v>88</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>1210</v>
@@ -54465,7 +54359,7 @@
         <v>94</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="I237" s="1" t="s">
         <v>1210</v>
@@ -54474,13 +54368,13 @@
         <v>92</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>2902</v>
+        <v>2899</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>2903</v>
+        <v>2900</v>
       </c>
       <c r="N237" s="1" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>101</v>
@@ -54531,7 +54425,7 @@
         <v>0</v>
       </c>
       <c r="AN237" s="1" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="AO237" s="1">
         <v>0</v>
@@ -54567,19 +54461,19 @@
         <v>22</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="BG237" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>2907</v>
+        <v>2904</v>
       </c>
       <c r="BN237" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU237" s="1" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="BV237" s="1" t="s">
         <v>122</v>
@@ -54606,10 +54500,10 @@
         <v>1046</v>
       </c>
       <c r="CF237" s="1" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="CH237" s="1" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="CI237" s="1" t="s">
         <v>130</v>
@@ -54623,10 +54517,10 @@
         <v>88</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>1210</v>
@@ -54641,7 +54535,7 @@
         <v>94</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="I238" s="1" t="s">
         <v>1210</v>
@@ -54650,13 +54544,13 @@
         <v>92</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>101</v>
@@ -54707,7 +54601,7 @@
         <v>0</v>
       </c>
       <c r="AN238" s="1" t="s">
-        <v>2914</v>
+        <v>2911</v>
       </c>
       <c r="AO238" s="1">
         <v>0</v>
@@ -54743,19 +54637,19 @@
         <v>22</v>
       </c>
       <c r="BD238" s="1" t="s">
-        <v>2915</v>
+        <v>2912</v>
       </c>
       <c r="BG238" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH238" s="1" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="BN238" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU238" s="1" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="BV238" s="1" t="s">
         <v>122</v>
@@ -54776,16 +54670,16 @@
         <v>102</v>
       </c>
       <c r="CD238" s="1" t="s">
+        <v>2915</v>
+      </c>
+      <c r="CE238" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="CF238" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="CH238" s="1" t="s">
         <v>2918</v>
-      </c>
-      <c r="CE238" s="1" t="s">
-        <v>2919</v>
-      </c>
-      <c r="CF238" s="1" t="s">
-        <v>2920</v>
-      </c>
-      <c r="CH238" s="1" t="s">
-        <v>2921</v>
       </c>
       <c r="CI238" s="1" t="s">
         <v>130</v>
@@ -54799,10 +54693,10 @@
         <v>88</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>1210</v>
@@ -54817,7 +54711,7 @@
         <v>94</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="I239" s="1" t="s">
         <v>1210</v>
@@ -54826,13 +54720,13 @@
         <v>92</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>2922</v>
+        <v>2919</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>2923</v>
+        <v>2920</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>2924</v>
+        <v>2921</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>101</v>
@@ -54919,19 +54813,19 @@
         <v>22</v>
       </c>
       <c r="BD239" s="1" t="s">
-        <v>2925</v>
+        <v>2922</v>
       </c>
       <c r="BG239" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>2926</v>
+        <v>2923</v>
       </c>
       <c r="BN239" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU239" s="1" t="s">
-        <v>2927</v>
+        <v>2924</v>
       </c>
       <c r="BV239" s="1" t="s">
         <v>122</v>
@@ -54952,7 +54846,7 @@
         <v>102</v>
       </c>
       <c r="CD239" s="1" t="s">
-        <v>2928</v>
+        <v>2925</v>
       </c>
       <c r="CE239" s="1" t="s">
         <v>574</v>
@@ -54961,7 +54855,7 @@
         <v>483</v>
       </c>
       <c r="CH239" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="CI239" s="1" t="s">
         <v>130</v>
@@ -54975,10 +54869,10 @@
         <v>88</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>1210</v>
@@ -54993,7 +54887,7 @@
         <v>94</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="I240" s="1" t="s">
         <v>1210</v>
@@ -55002,13 +54896,13 @@
         <v>92</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>101</v>
@@ -55062,7 +54956,7 @@
         <v>0</v>
       </c>
       <c r="AN240" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="AO240" s="1">
         <v>0</v>
@@ -55098,19 +54992,19 @@
         <v>22</v>
       </c>
       <c r="BD240" s="1" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="BG240" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="BN240" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU240" s="1" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="BV240" s="1" t="s">
         <v>122</v>
@@ -55134,13 +55028,13 @@
         <v>467</v>
       </c>
       <c r="CE240" s="1" t="s">
-        <v>2937</v>
+        <v>2934</v>
       </c>
       <c r="CF240" s="1" t="s">
-        <v>2938</v>
+        <v>2935</v>
       </c>
       <c r="CH240" s="1" t="s">
-        <v>2939</v>
+        <v>2936</v>
       </c>
       <c r="CI240" s="1" t="s">
         <v>130</v>
@@ -55154,10 +55048,10 @@
         <v>88</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>1210</v>
@@ -55172,7 +55066,7 @@
         <v>94</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="I241" s="1" t="s">
         <v>1210</v>
@@ -55181,13 +55075,13 @@
         <v>92</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>2940</v>
+        <v>2937</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>2941</v>
+        <v>2938</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>2942</v>
+        <v>2939</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>101</v>
@@ -55274,19 +55168,19 @@
         <v>22</v>
       </c>
       <c r="BD241" s="1" t="s">
-        <v>2943</v>
+        <v>2940</v>
       </c>
       <c r="BG241" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH241" s="1" t="s">
-        <v>2944</v>
+        <v>2941</v>
       </c>
       <c r="BN241" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU241" s="1" t="s">
-        <v>2945</v>
+        <v>2942</v>
       </c>
       <c r="BV241" s="1" t="s">
         <v>122</v>
@@ -55307,16 +55201,16 @@
         <v>102</v>
       </c>
       <c r="CD241" s="1" t="s">
-        <v>2946</v>
+        <v>2943</v>
       </c>
       <c r="CE241" s="1" t="s">
         <v>585</v>
       </c>
       <c r="CF241" s="1" t="s">
-        <v>2947</v>
+        <v>2944</v>
       </c>
       <c r="CH241" s="1" t="s">
-        <v>2948</v>
+        <v>2945</v>
       </c>
       <c r="CI241" s="1" t="s">
         <v>130</v>
@@ -55330,10 +55224,10 @@
         <v>88</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>1210</v>
@@ -55348,7 +55242,7 @@
         <v>94</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="I242" s="1" t="s">
         <v>1210</v>
@@ -55357,13 +55251,13 @@
         <v>92</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>2949</v>
+        <v>2946</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>2950</v>
+        <v>2947</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>2951</v>
+        <v>2948</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>101</v>
@@ -55417,7 +55311,7 @@
         <v>0</v>
       </c>
       <c r="AN242" s="1" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
       <c r="AO242" s="1">
         <v>0</v>
@@ -55453,19 +55347,19 @@
         <v>22</v>
       </c>
       <c r="BD242" s="1" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
       <c r="BG242" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH242" s="1" t="s">
-        <v>2954</v>
+        <v>2951</v>
       </c>
       <c r="BN242" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU242" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="BV242" s="1" t="s">
         <v>122</v>
@@ -55486,16 +55380,16 @@
         <v>102</v>
       </c>
       <c r="CD242" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="CE242" s="1" t="s">
         <v>974</v>
       </c>
       <c r="CF242" s="1" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
       <c r="CH242" s="1" t="s">
-        <v>2958</v>
+        <v>2955</v>
       </c>
       <c r="CI242" s="1" t="s">
         <v>130</v>
@@ -55509,10 +55403,10 @@
         <v>88</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>1210</v>
@@ -55527,7 +55421,7 @@
         <v>94</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="I243" s="1" t="s">
         <v>1210</v>
@@ -55536,13 +55430,13 @@
         <v>92</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>2959</v>
+        <v>2956</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>2961</v>
+        <v>2958</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>101</v>
@@ -55596,7 +55490,7 @@
         <v>0</v>
       </c>
       <c r="AN243" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="AO243" s="1">
         <v>0</v>
@@ -55632,19 +55526,19 @@
         <v>22</v>
       </c>
       <c r="BD243" s="1" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="BG243" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="BN243" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU243" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="BV243" s="1" t="s">
         <v>122</v>
@@ -55668,13 +55562,13 @@
         <v>960</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="CF243" s="1" t="s">
-        <v>2966</v>
+        <v>2963</v>
       </c>
       <c r="CH243" s="1" t="s">
-        <v>2967</v>
+        <v>2964</v>
       </c>
       <c r="CI243" s="1" t="s">
         <v>130</v>
@@ -55688,10 +55582,10 @@
         <v>88</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>1210</v>
@@ -55706,7 +55600,7 @@
         <v>94</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="I244" s="1" t="s">
         <v>1210</v>
@@ -55715,10 +55609,10 @@
         <v>92</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>2968</v>
+        <v>2965</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>2969</v>
+        <v>2966</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>101</v>
@@ -55760,7 +55654,7 @@
         <v>0</v>
       </c>
       <c r="AN244" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="AO244" s="1">
         <v>0</v>
@@ -55796,7 +55690,7 @@
         <v>21</v>
       </c>
       <c r="BD244" s="1" t="s">
-        <v>2970</v>
+        <v>2967</v>
       </c>
       <c r="BN244" s="1" t="s">
         <v>118</v>
@@ -55820,7 +55714,7 @@
         <v>102</v>
       </c>
       <c r="CD244" s="1" t="s">
-        <v>2968</v>
+        <v>2965</v>
       </c>
       <c r="CH244" s="1" t="s">
         <v>130</v>
@@ -55837,10 +55731,10 @@
         <v>88</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>1210</v>
@@ -55855,7 +55749,7 @@
         <v>94</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="I245" s="1" t="s">
         <v>1210</v>
@@ -55864,13 +55758,13 @@
         <v>92</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>2971</v>
+        <v>2968</v>
       </c>
       <c r="L245" s="1" t="s">
         <v>2168</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>2972</v>
+        <v>2969</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>101</v>
@@ -55921,7 +55815,7 @@
         <v>0</v>
       </c>
       <c r="AN245" s="1" t="s">
-        <v>2973</v>
+        <v>2970</v>
       </c>
       <c r="AO245" s="1">
         <v>0</v>
@@ -55954,19 +55848,19 @@
         <v>22</v>
       </c>
       <c r="BD245" s="1" t="s">
-        <v>2974</v>
+        <v>2971</v>
       </c>
       <c r="BG245" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="BN245" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU245" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="BV245" s="1" t="s">
         <v>122</v>
@@ -55984,16 +55878,16 @@
         <v>102</v>
       </c>
       <c r="CD245" s="1" t="s">
+        <v>2974</v>
+      </c>
+      <c r="CE245" s="1" t="s">
+        <v>2975</v>
+      </c>
+      <c r="CF245" s="1" t="s">
+        <v>2976</v>
+      </c>
+      <c r="CH245" s="1" t="s">
         <v>2977</v>
-      </c>
-      <c r="CE245" s="1" t="s">
-        <v>2978</v>
-      </c>
-      <c r="CF245" s="1" t="s">
-        <v>2979</v>
-      </c>
-      <c r="CH245" s="1" t="s">
-        <v>2980</v>
       </c>
       <c r="CI245" s="1" t="s">
         <v>130</v>
@@ -56007,10 +55901,10 @@
         <v>88</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>1210</v>
@@ -56025,7 +55919,7 @@
         <v>94</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="I246" s="1" t="s">
         <v>1210</v>
@@ -56034,13 +55928,13 @@
         <v>92</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="N246" s="1" t="s">
-        <v>2983</v>
+        <v>2980</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>101</v>
@@ -56124,19 +56018,19 @@
         <v>22</v>
       </c>
       <c r="BD246" s="1" t="s">
-        <v>2984</v>
+        <v>2981</v>
       </c>
       <c r="BG246" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="BN246" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU246" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="BV246" s="1" t="s">
         <v>122</v>
@@ -56157,16 +56051,16 @@
         <v>2106</v>
       </c>
       <c r="CD246" s="1" t="s">
+        <v>2984</v>
+      </c>
+      <c r="CE246" s="1" t="s">
+        <v>2985</v>
+      </c>
+      <c r="CF246" s="1" t="s">
+        <v>2986</v>
+      </c>
+      <c r="CH246" s="1" t="s">
         <v>2987</v>
-      </c>
-      <c r="CE246" s="1" t="s">
-        <v>2988</v>
-      </c>
-      <c r="CF246" s="1" t="s">
-        <v>2989</v>
-      </c>
-      <c r="CH246" s="1" t="s">
-        <v>2990</v>
       </c>
       <c r="CI246" s="1" t="s">
         <v>130</v>
@@ -56180,10 +56074,10 @@
         <v>88</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>1210</v>
@@ -56198,7 +56092,7 @@
         <v>94</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="I247" s="1" t="s">
         <v>1210</v>
@@ -56207,13 +56101,13 @@
         <v>92</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>101</v>
@@ -56267,7 +56161,7 @@
         <v>0</v>
       </c>
       <c r="AN247" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="AO247" s="1">
         <v>0</v>
@@ -56303,19 +56197,19 @@
         <v>22</v>
       </c>
       <c r="BD247" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="BG247" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="BN247" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU247" s="1" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="BV247" s="1" t="s">
         <v>122</v>
@@ -56336,16 +56230,16 @@
         <v>102</v>
       </c>
       <c r="CD247" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="CE247" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="CF247" s="1" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="CH247" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="CI247" s="1" t="s">
         <v>130</v>
@@ -56359,10 +56253,10 @@
         <v>88</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>1210</v>
@@ -56377,7 +56271,7 @@
         <v>94</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="I248" s="1" t="s">
         <v>1210</v>
@@ -56386,10 +56280,10 @@
         <v>92</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>101</v>
@@ -56431,7 +56325,7 @@
         <v>0</v>
       </c>
       <c r="AN248" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="AO248" s="1">
         <v>0</v>
@@ -56467,7 +56361,7 @@
         <v>22</v>
       </c>
       <c r="BD248" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="BN248" s="1" t="s">
         <v>118</v>
@@ -56491,7 +56385,7 @@
         <v>102</v>
       </c>
       <c r="CD248" s="1" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="CH248" s="1" t="s">
         <v>130</v>
@@ -56508,10 +56402,10 @@
         <v>88</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>1210</v>
@@ -56526,7 +56420,7 @@
         <v>94</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>1210</v>
@@ -56535,10 +56429,10 @@
         <v>92</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>101</v>
@@ -56580,7 +56474,7 @@
         <v>0</v>
       </c>
       <c r="AN249" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="AO249" s="1">
         <v>0</v>
@@ -56616,7 +56510,7 @@
         <v>22</v>
       </c>
       <c r="BD249" s="1" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="BN249" s="1" t="s">
         <v>118</v>
@@ -56640,7 +56534,7 @@
         <v>102</v>
       </c>
       <c r="CD249" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="CH249" s="1" t="s">
         <v>130</v>
@@ -56657,10 +56551,10 @@
         <v>88</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>1210</v>
@@ -56675,7 +56569,7 @@
         <v>94</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="I250" s="1" t="s">
         <v>1210</v>
@@ -56684,13 +56578,13 @@
         <v>92</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>101</v>
@@ -56783,7 +56677,7 @@
         <v>22</v>
       </c>
       <c r="BD250" s="1" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="BG250" s="1" t="s">
         <v>115</v>
@@ -56810,10 +56704,10 @@
         <v>102</v>
       </c>
       <c r="CD250" s="1" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="CE250" s="1" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="CF250" s="1" t="s">
         <v>205</v>
@@ -56833,10 +56727,10 @@
         <v>88</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>1210</v>
@@ -56851,7 +56745,7 @@
         <v>94</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="I251" s="1" t="s">
         <v>1210</v>
@@ -56860,10 +56754,10 @@
         <v>92</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>101</v>
@@ -56905,7 +56799,7 @@
         <v>0</v>
       </c>
       <c r="AN251" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="AO251" s="1">
         <v>0</v>
@@ -56941,7 +56835,7 @@
         <v>22</v>
       </c>
       <c r="BD251" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="BN251" s="1" t="s">
         <v>118</v>
@@ -56950,7 +56844,7 @@
         <v>122</v>
       </c>
       <c r="BX251" s="1" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="BY251" s="1">
         <v>0</v>
@@ -56968,7 +56862,7 @@
         <v>102</v>
       </c>
       <c r="CD251" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="CH251" s="1" t="s">
         <v>130</v>
@@ -56985,10 +56879,10 @@
         <v>88</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>1210</v>
@@ -57003,7 +56897,7 @@
         <v>94</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="I252" s="1" t="s">
         <v>1210</v>
@@ -57012,13 +56906,13 @@
         <v>92</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>101</v>
@@ -57069,7 +56963,7 @@
         <v>0</v>
       </c>
       <c r="AN252" s="1" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="AO252" s="1">
         <v>0</v>
@@ -57105,19 +56999,19 @@
         <v>22</v>
       </c>
       <c r="BD252" s="1" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="BG252" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH252" s="1" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="BN252" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU252" s="1" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="BV252" s="1" t="s">
         <v>122</v>
@@ -57138,16 +57032,16 @@
         <v>102</v>
       </c>
       <c r="CD252" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="CE252" s="1" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="CF252" s="1" t="s">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="CH252" s="1" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="CI252" s="1" t="s">
         <v>130</v>
@@ -57161,10 +57055,10 @@
         <v>88</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>1210</v>
@@ -57179,7 +57073,7 @@
         <v>94</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="I253" s="1" t="s">
         <v>1210</v>
@@ -57188,13 +57082,13 @@
         <v>92</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>101</v>
@@ -57224,7 +57118,7 @@
         <v>108</v>
       </c>
       <c r="AG253" s="1" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
       <c r="AH253" s="1" t="s">
         <v>361</v>
@@ -57239,7 +57133,7 @@
         <v>0</v>
       </c>
       <c r="AN253" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="AO253" s="1">
         <v>0</v>
@@ -57269,19 +57163,19 @@
         <v>22</v>
       </c>
       <c r="BD253" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="BG253" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH253" s="1" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="BN253" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU253" s="1" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="BV253" s="1" t="s">
         <v>122</v>
@@ -57299,16 +57193,16 @@
         <v>102</v>
       </c>
       <c r="CD253" s="1" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="CE253" s="1" t="s">
         <v>301</v>
       </c>
       <c r="CF253" s="1" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="CH253" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="CI253" s="1" t="s">
         <v>130</v>
@@ -57322,10 +57216,10 @@
         <v>88</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>1210</v>
@@ -57340,7 +57234,7 @@
         <v>94</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="I254" s="1" t="s">
         <v>1210</v>
@@ -57349,13 +57243,13 @@
         <v>92</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>101</v>
@@ -57439,19 +57333,19 @@
         <v>22</v>
       </c>
       <c r="BD254" s="1" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="BG254" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="BN254" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU254" s="1" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="BV254" s="1" t="s">
         <v>122</v>
@@ -57469,16 +57363,16 @@
         <v>102</v>
       </c>
       <c r="CD254" s="1" t="s">
+        <v>3040</v>
+      </c>
+      <c r="CE254" s="1" t="s">
+        <v>3041</v>
+      </c>
+      <c r="CF254" s="1" t="s">
+        <v>3042</v>
+      </c>
+      <c r="CH254" s="1" t="s">
         <v>3043</v>
-      </c>
-      <c r="CE254" s="1" t="s">
-        <v>3044</v>
-      </c>
-      <c r="CF254" s="1" t="s">
-        <v>3045</v>
-      </c>
-      <c r="CH254" s="1" t="s">
-        <v>3046</v>
       </c>
       <c r="CI254" s="1" t="s">
         <v>130</v>
@@ -57492,10 +57386,10 @@
         <v>88</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>1210</v>
@@ -57510,7 +57404,7 @@
         <v>94</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="I255" s="1" t="s">
         <v>1210</v>
@@ -57519,13 +57413,13 @@
         <v>92</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>101</v>
@@ -57612,19 +57506,19 @@
         <v>22</v>
       </c>
       <c r="BD255" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="BG255" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="BN255" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU255" s="1" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="BV255" s="1" t="s">
         <v>122</v>
@@ -57642,16 +57536,16 @@
         <v>102</v>
       </c>
       <c r="CD255" s="1" t="s">
+        <v>3050</v>
+      </c>
+      <c r="CE255" s="1" t="s">
+        <v>3051</v>
+      </c>
+      <c r="CF255" s="1" t="s">
+        <v>3052</v>
+      </c>
+      <c r="CH255" s="1" t="s">
         <v>3053</v>
-      </c>
-      <c r="CE255" s="1" t="s">
-        <v>3054</v>
-      </c>
-      <c r="CF255" s="1" t="s">
-        <v>3055</v>
-      </c>
-      <c r="CH255" s="1" t="s">
-        <v>3056</v>
       </c>
       <c r="CI255" s="1" t="s">
         <v>130</v>
@@ -57665,10 +57559,10 @@
         <v>88</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>1210</v>
@@ -57683,7 +57577,7 @@
         <v>94</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="I256" s="1" t="s">
         <v>1210</v>
@@ -57692,13 +57586,13 @@
         <v>92</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>101</v>
@@ -57707,7 +57601,7 @@
         <v>102</v>
       </c>
       <c r="Q256" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="R256" s="1" t="s">
         <v>135</v>
@@ -57749,7 +57643,7 @@
         <v>0</v>
       </c>
       <c r="AN256" s="1" t="s">
-        <v>2895</v>
+        <v>2892</v>
       </c>
       <c r="AO256" s="1">
         <v>0</v>
@@ -57782,19 +57676,19 @@
         <v>22</v>
       </c>
       <c r="BD256" s="1" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="BG256" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH256" s="1" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="BN256" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU256" s="1" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="BV256" s="1" t="s">
         <v>122</v>
@@ -57812,16 +57706,16 @@
         <v>102</v>
       </c>
       <c r="CD256" s="1" t="s">
+        <v>3061</v>
+      </c>
+      <c r="CE256" s="1" t="s">
+        <v>3062</v>
+      </c>
+      <c r="CF256" s="1" t="s">
+        <v>3063</v>
+      </c>
+      <c r="CH256" s="1" t="s">
         <v>3064</v>
-      </c>
-      <c r="CE256" s="1" t="s">
-        <v>3065</v>
-      </c>
-      <c r="CF256" s="1" t="s">
-        <v>3066</v>
-      </c>
-      <c r="CH256" s="1" t="s">
-        <v>3067</v>
       </c>
       <c r="CI256" s="1" t="s">
         <v>130</v>
@@ -57862,16 +57756,16 @@
         <v>97</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>3069</v>
+        <v>3066</v>
       </c>
       <c r="M257" s="1" t="s">
         <v>103</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>101</v>
@@ -57964,13 +57858,13 @@
         <v>22</v>
       </c>
       <c r="BD257" s="1" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="BG257" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="BN257" s="1" t="s">
         <v>118</v>
@@ -57979,7 +57873,7 @@
         <v>107</v>
       </c>
       <c r="BU257" s="1" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="BV257" s="1" t="s">
         <v>122</v>
@@ -58009,10 +57903,10 @@
         <v>1203</v>
       </c>
       <c r="CF257" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="CH257" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="CI257" s="1" t="s">
         <v>130</v>
@@ -58053,13 +57947,13 @@
         <v>97</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>101</v>
@@ -58149,13 +58043,13 @@
         <v>22</v>
       </c>
       <c r="BD258" s="1" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="BG258" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="BN258" s="1" t="s">
         <v>118</v>
@@ -58170,13 +58064,13 @@
         <v>160</v>
       </c>
       <c r="BS258" s="1" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="BT258" s="3">
         <v>5347</v>
       </c>
       <c r="BU258" s="1" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="BV258" s="1" t="s">
         <v>122</v>
@@ -58200,16 +58094,16 @@
         <v>102</v>
       </c>
       <c r="CD258" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="CE258" s="1" t="s">
         <v>441</v>
       </c>
       <c r="CF258" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="CH258" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="CI258" s="1" t="s">
         <v>130</v>
@@ -58250,10 +58144,10 @@
         <v>97</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>101</v>
@@ -58334,7 +58228,7 @@
         <v>22</v>
       </c>
       <c r="BD259" s="1" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="BN259" s="1" t="s">
         <v>118</v>
@@ -58364,7 +58258,7 @@
         <v>102</v>
       </c>
       <c r="CD259" s="1" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="CH259" s="1" t="s">
         <v>130</v>
@@ -58408,10 +58302,10 @@
         <v>97</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>2737</v>
+        <v>2734</v>
       </c>
       <c r="O260" s="1" t="s">
         <v>101</v>
@@ -58441,10 +58335,10 @@
         <v>108</v>
       </c>
       <c r="AG260" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="AH260" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="AJ260" s="1" t="s">
         <v>111</v>
@@ -58492,7 +58386,7 @@
         <v>21</v>
       </c>
       <c r="BD260" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="BN260" s="1" t="s">
         <v>118</v>
@@ -58522,7 +58416,7 @@
         <v>93</v>
       </c>
       <c r="CD260" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="CH260" s="1" t="s">
         <v>130</v>
@@ -58545,7 +58439,7 @@
         <v>245</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>92</v>
@@ -58566,10 +58460,10 @@
         <v>97</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>2866</v>
+        <v>2863</v>
       </c>
       <c r="O261" s="1" t="s">
         <v>101</v>
@@ -58599,10 +58493,10 @@
         <v>108</v>
       </c>
       <c r="AG261" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="AH261" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="AJ261" s="1" t="s">
         <v>111</v>
@@ -58650,7 +58544,7 @@
         <v>21</v>
       </c>
       <c r="BD261" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="BN261" s="1" t="s">
         <v>118</v>
@@ -58668,7 +58562,7 @@
         <v>112</v>
       </c>
       <c r="CA261" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="CB261" s="1" t="s">
         <v>124</v>
@@ -58677,7 +58571,7 @@
         <v>93</v>
       </c>
       <c r="CD261" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="CH261" s="1" t="s">
         <v>130</v>
@@ -58703,7 +58597,7 @@
         <v>410</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>102</v>
@@ -58715,22 +58609,22 @@
         <v>95</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="M262" s="1" t="s">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="O262" s="1" t="s">
         <v>101</v>
@@ -58766,13 +58660,13 @@
         <v>43847</v>
       </c>
       <c r="AD262" s="1" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
       <c r="AF262" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AG262" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="AH262" s="1" t="s">
         <v>1861</v>
@@ -58817,7 +58711,7 @@
         <v>102</v>
       </c>
       <c r="AZ262" s="1" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="BB262" s="1">
         <v>2</v>
@@ -58826,10 +58720,10 @@
         <v>21</v>
       </c>
       <c r="BD262" s="1" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="BN262" s="1" t="s">
         <v>118</v>
@@ -58841,13 +58735,13 @@
         <v>119</v>
       </c>
       <c r="BS262" s="1" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="BT262" s="3">
         <v>34808</v>
       </c>
       <c r="BU262" s="1" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
       <c r="BV262" s="1" t="s">
         <v>122</v>
@@ -58856,7 +58750,7 @@
         <v>0</v>
       </c>
       <c r="CA262" s="1" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="CB262" s="1" t="s">
         <v>124</v>
@@ -58865,13 +58759,13 @@
         <v>102</v>
       </c>
       <c r="CD262" s="1" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="CE262" s="1" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
       <c r="CF262" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="CH262" s="1" t="s">
         <v>1793</v>
@@ -58888,10 +58782,10 @@
         <v>88</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>1210</v>
@@ -58915,16 +58809,16 @@
         <v>92</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="M263" s="1" t="s">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="O263" s="1" t="s">
         <v>101</v>
@@ -58978,7 +58872,7 @@
         <v>0</v>
       </c>
       <c r="AN263" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="AO263" s="1">
         <v>0</v>
@@ -59008,7 +58902,7 @@
         <v>102</v>
       </c>
       <c r="AZ263" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="BB263" s="1">
         <v>2</v>
@@ -59017,13 +58911,13 @@
         <v>21</v>
       </c>
       <c r="BD263" s="1" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="BN263" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU263" s="1" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
       <c r="BV263" s="1" t="s">
         <v>122</v>
@@ -59041,13 +58935,13 @@
         <v>102</v>
       </c>
       <c r="CD263" s="1" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="CE263" s="1" t="s">
-        <v>3116</v>
+        <v>3113</v>
       </c>
       <c r="CF263" s="1" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="CH263" s="1" t="s">
         <v>130</v>
@@ -59091,16 +58985,16 @@
         <v>97</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>3118</v>
+        <v>3115</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="M264" s="1" t="s">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="O264" s="1" t="s">
         <v>101</v>
@@ -59139,7 +59033,7 @@
         <v>44246</v>
       </c>
       <c r="AD264" s="1" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="AF264" s="1" t="s">
         <v>108</v>
@@ -59196,10 +59090,10 @@
         <v>21</v>
       </c>
       <c r="BD264" s="1" t="s">
-        <v>3122</v>
+        <v>3119</v>
       </c>
       <c r="BH264" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="BN264" s="1" t="s">
         <v>118</v>
@@ -59208,7 +59102,7 @@
         <v>107</v>
       </c>
       <c r="BU264" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="BV264" s="1" t="s">
         <v>122</v>
@@ -59232,13 +59126,13 @@
         <v>102</v>
       </c>
       <c r="CD264" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="CE264" s="1" t="s">
         <v>144</v>
       </c>
       <c r="CF264" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="CH264" s="1" t="s">
         <v>130</v>
@@ -59282,16 +59176,16 @@
         <v>97</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
       <c r="M265" s="1" t="s">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="O265" s="1" t="s">
         <v>101</v>
@@ -59330,7 +59224,7 @@
         <v>44267</v>
       </c>
       <c r="AD265" s="1" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="AF265" s="1" t="s">
         <v>108</v>
@@ -59387,10 +59281,10 @@
         <v>21</v>
       </c>
       <c r="BD265" s="1" t="s">
-        <v>3131</v>
+        <v>3128</v>
       </c>
       <c r="BH265" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="BN265" s="1" t="s">
         <v>118</v>
@@ -59402,13 +59296,13 @@
         <v>119</v>
       </c>
       <c r="BS265" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="BT265" s="3">
         <v>35711</v>
       </c>
       <c r="BU265" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="BV265" s="1" t="s">
         <v>122</v>
@@ -59432,7 +59326,7 @@
         <v>369</v>
       </c>
       <c r="CF265" s="1" t="s">
-        <v>3135</v>
+        <v>3132</v>
       </c>
       <c r="CH265" s="1" t="s">
         <v>130</v>
@@ -59476,16 +59370,16 @@
         <v>97</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="M266" s="1" t="s">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="N266" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="O266" s="1" t="s">
         <v>101</v>
@@ -59521,16 +59415,16 @@
         <v>44255</v>
       </c>
       <c r="AD266" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="AF266" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AG266" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="AH266" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="AJ266" s="1" t="s">
         <v>111</v>
@@ -59578,10 +59472,10 @@
         <v>21</v>
       </c>
       <c r="BD266" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="BH266" s="1" t="s">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="BN266" s="1" t="s">
         <v>118</v>
@@ -59590,13 +59484,13 @@
         <v>217</v>
       </c>
       <c r="BS266" s="1" t="s">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="BT266" s="3">
         <v>2302</v>
       </c>
       <c r="BU266" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="BV266" s="1" t="s">
         <v>122</v>
@@ -59620,13 +59514,13 @@
         <v>93</v>
       </c>
       <c r="CD266" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="CE266" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="CF266" s="1" t="s">
-        <v>3145</v>
+        <v>3142</v>
       </c>
       <c r="CH266" s="1" t="s">
         <v>130</v>
@@ -59670,16 +59564,16 @@
         <v>97</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>3147</v>
+        <v>3144</v>
       </c>
       <c r="M267" s="1" t="s">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="N267" s="1" t="s">
-        <v>3148</v>
+        <v>3145</v>
       </c>
       <c r="O267" s="1" t="s">
         <v>101</v>
@@ -59715,7 +59609,7 @@
         <v>44316</v>
       </c>
       <c r="AD267" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="AF267" s="1" t="s">
         <v>108</v>
@@ -59772,10 +59666,10 @@
         <v>21</v>
       </c>
       <c r="BD267" s="1" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="BH267" s="1" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="BN267" s="1" t="s">
         <v>118</v>
@@ -59787,13 +59681,13 @@
         <v>217</v>
       </c>
       <c r="BS267" s="1" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="BT267" s="3">
         <v>35108</v>
       </c>
       <c r="BU267" s="1" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="BV267" s="1" t="s">
         <v>122</v>
@@ -59811,16 +59705,16 @@
         <v>102</v>
       </c>
       <c r="CD267" s="1" t="s">
-        <v>3154</v>
+        <v>3151</v>
       </c>
       <c r="CE267" s="1" t="s">
         <v>1879</v>
       </c>
       <c r="CF267" s="1" t="s">
-        <v>3155</v>
+        <v>3152</v>
       </c>
       <c r="CH267" s="1" t="s">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="CI267" s="1" t="s">
         <v>130</v>
@@ -59861,13 +59755,13 @@
         <v>97</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>3157</v>
+        <v>3154</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>3158</v>
+        <v>3155</v>
       </c>
       <c r="N268" s="1" t="s">
-        <v>3159</v>
+        <v>3156</v>
       </c>
       <c r="O268" s="1" t="s">
         <v>101</v>
@@ -59957,7 +59851,7 @@
         <v>22</v>
       </c>
       <c r="BD268" s="1" t="s">
-        <v>3160</v>
+        <v>3157</v>
       </c>
       <c r="BG268" s="1" t="s">
         <v>115</v>
@@ -59966,7 +59860,7 @@
         <v>118</v>
       </c>
       <c r="BU268" s="1" t="s">
-        <v>3161</v>
+        <v>3158</v>
       </c>
       <c r="BV268" s="1" t="s">
         <v>122</v>
@@ -59987,13 +59881,13 @@
         <v>102</v>
       </c>
       <c r="CD268" s="1" t="s">
-        <v>3162</v>
+        <v>3159</v>
       </c>
       <c r="CE268" s="1" t="s">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="CF268" s="1" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="CH268" s="1" t="s">
         <v>130</v>
@@ -60016,7 +59910,7 @@
         <v>245</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>92</v>
@@ -60037,16 +59931,16 @@
         <v>97</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="L269" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="M269" s="1" t="s">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="N269" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="O269" s="1" t="s">
         <v>101</v>
@@ -60082,16 +59976,16 @@
         <v>44507</v>
       </c>
       <c r="AD269" s="1" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="AF269" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AG269" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="AH269" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="AI269" s="1" t="s">
         <v>102</v>
@@ -60142,16 +60036,16 @@
         <v>21</v>
       </c>
       <c r="BD269" s="1" t="s">
-        <v>3168</v>
+        <v>3165</v>
       </c>
       <c r="BH269" s="1" t="s">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="BN269" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU269" s="1" t="s">
-        <v>3169</v>
+        <v>3166</v>
       </c>
       <c r="BV269" s="1" t="s">
         <v>122</v>
@@ -60166,7 +60060,7 @@
         <v>112</v>
       </c>
       <c r="CA269" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="CB269" s="1" t="s">
         <v>124</v>
@@ -60175,13 +60069,13 @@
         <v>93</v>
       </c>
       <c r="CD269" s="1" t="s">
-        <v>3170</v>
+        <v>3167</v>
       </c>
       <c r="CE269" s="1" t="s">
-        <v>3170</v>
+        <v>3167</v>
       </c>
       <c r="CF269" s="1" t="s">
-        <v>3171</v>
+        <v>3168</v>
       </c>
       <c r="CH269" s="1" t="s">
         <v>130</v>
@@ -60225,13 +60119,13 @@
         <v>97</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>3172</v>
+        <v>3169</v>
       </c>
       <c r="L270" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="N270" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="O270" s="1" t="s">
         <v>101</v>
@@ -60318,13 +60212,13 @@
         <v>22</v>
       </c>
       <c r="BD270" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="BG270" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH270" s="1" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="BN270" s="1" t="s">
         <v>118</v>
@@ -60336,13 +60230,13 @@
         <v>119</v>
       </c>
       <c r="BS270" s="1" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="BT270" s="3">
         <v>35278</v>
       </c>
       <c r="BU270" s="1" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="BV270" s="1" t="s">
         <v>122</v>
@@ -60363,16 +60257,16 @@
         <v>102</v>
       </c>
       <c r="CD270" s="1" t="s">
+        <v>3176</v>
+      </c>
+      <c r="CE270" s="1" t="s">
+        <v>3177</v>
+      </c>
+      <c r="CF270" s="1" t="s">
+        <v>3178</v>
+      </c>
+      <c r="CH270" s="1" t="s">
         <v>3179</v>
-      </c>
-      <c r="CE270" s="1" t="s">
-        <v>3180</v>
-      </c>
-      <c r="CF270" s="1" t="s">
-        <v>3181</v>
-      </c>
-      <c r="CH270" s="1" t="s">
-        <v>3182</v>
       </c>
       <c r="CI270" s="1" t="s">
         <v>130</v>
@@ -60386,10 +60280,10 @@
         <v>88</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>1210</v>
@@ -60404,7 +60298,7 @@
         <v>94</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="I271" s="1" t="s">
         <v>1210</v>
@@ -60413,13 +60307,13 @@
         <v>92</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>3183</v>
+        <v>3180</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>3184</v>
+        <v>3181</v>
       </c>
       <c r="N271" s="1" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="O271" s="1" t="s">
         <v>101</v>
@@ -60473,7 +60367,7 @@
         <v>0</v>
       </c>
       <c r="AN271" s="1" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="AO271" s="1">
         <v>0</v>
@@ -60509,19 +60403,19 @@
         <v>22</v>
       </c>
       <c r="BD271" s="1" t="s">
-        <v>3187</v>
+        <v>3184</v>
       </c>
       <c r="BG271" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH271" s="1" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="BN271" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU271" s="1" t="s">
-        <v>3189</v>
+        <v>3186</v>
       </c>
       <c r="BV271" s="1" t="s">
         <v>122</v>
@@ -60548,10 +60442,10 @@
         <v>1442</v>
       </c>
       <c r="CF271" s="1" t="s">
-        <v>3190</v>
+        <v>3187</v>
       </c>
       <c r="CH271" s="1" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="CI271" s="1" t="s">
         <v>130</v>
@@ -60592,10 +60486,10 @@
         <v>97</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="L272" s="1" t="s">
-        <v>2866</v>
+        <v>2863</v>
       </c>
       <c r="O272" s="1" t="s">
         <v>101</v>
@@ -60622,10 +60516,10 @@
         <v>108</v>
       </c>
       <c r="AG272" s="1" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
       <c r="AH272" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="AJ272" s="1" t="s">
         <v>111</v>
@@ -60673,7 +60567,7 @@
         <v>22</v>
       </c>
       <c r="BD272" s="1" t="s">
-        <v>3193</v>
+        <v>3190</v>
       </c>
       <c r="BN272" s="1" t="s">
         <v>118</v>
@@ -60697,7 +60591,7 @@
         <v>93</v>
       </c>
       <c r="CD272" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="CH272" s="1" t="s">
         <v>130</v>
@@ -60741,13 +60635,13 @@
         <v>97</v>
       </c>
       <c r="K273" s="1" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="L273" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="N273" s="1" t="s">
-        <v>3195</v>
+        <v>3192</v>
       </c>
       <c r="O273" s="1" t="s">
         <v>101</v>
@@ -60837,19 +60731,19 @@
         <v>22</v>
       </c>
       <c r="BD273" s="1" t="s">
-        <v>3196</v>
+        <v>3193</v>
       </c>
       <c r="BG273" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH273" s="1" t="s">
-        <v>3197</v>
+        <v>3194</v>
       </c>
       <c r="BN273" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU273" s="1" t="s">
-        <v>3198</v>
+        <v>3195</v>
       </c>
       <c r="BV273" s="1" t="s">
         <v>122</v>
@@ -60870,16 +60764,16 @@
         <v>102</v>
       </c>
       <c r="CD273" s="1" t="s">
-        <v>3199</v>
+        <v>3196</v>
       </c>
       <c r="CE273" s="1" t="s">
         <v>442</v>
       </c>
       <c r="CF273" s="1" t="s">
-        <v>3200</v>
+        <v>3197</v>
       </c>
       <c r="CH273" s="1" t="s">
-        <v>3201</v>
+        <v>3198</v>
       </c>
       <c r="CI273" s="1" t="s">
         <v>130</v>
@@ -60920,16 +60814,16 @@
         <v>97</v>
       </c>
       <c r="K274" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="L274" s="1" t="s">
-        <v>3202</v>
+        <v>3199</v>
       </c>
       <c r="M274" s="1" t="s">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="N274" s="1" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="O274" s="1" t="s">
         <v>101</v>
@@ -60965,7 +60859,7 @@
         <v>44701</v>
       </c>
       <c r="AD274" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="AF274" s="1" t="s">
         <v>108</v>
@@ -61013,7 +60907,7 @@
         <v>102</v>
       </c>
       <c r="AZ274" s="1" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="BB274" s="1">
         <v>5</v>
@@ -61022,10 +60916,10 @@
         <v>22</v>
       </c>
       <c r="BD274" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="BH274" s="1" t="s">
-        <v>3206</v>
+        <v>3203</v>
       </c>
       <c r="BN274" s="1" t="s">
         <v>118</v>
@@ -61040,13 +60934,13 @@
         <v>160</v>
       </c>
       <c r="BS274" s="1" t="s">
-        <v>3207</v>
+        <v>3204</v>
       </c>
       <c r="BT274" s="3">
         <v>36825</v>
       </c>
       <c r="BU274" s="1" t="s">
-        <v>3208</v>
+        <v>3205</v>
       </c>
       <c r="BV274" s="1" t="s">
         <v>122</v>
@@ -61070,16 +60964,16 @@
         <v>102</v>
       </c>
       <c r="CD274" s="1" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="CE274" s="1" t="s">
-        <v>3209</v>
+        <v>3206</v>
       </c>
       <c r="CF274" s="1" t="s">
-        <v>3210</v>
+        <v>3207</v>
       </c>
       <c r="CH274" s="1" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="CI274" s="1" t="s">
         <v>130</v>
@@ -61120,16 +61014,16 @@
         <v>97</v>
       </c>
       <c r="K275" s="1" t="s">
-        <v>2819</v>
+        <v>2816</v>
       </c>
       <c r="L275" s="1" t="s">
-        <v>3211</v>
+        <v>3208</v>
       </c>
       <c r="M275" s="1" t="s">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="N275" s="1" t="s">
-        <v>2821</v>
+        <v>2818</v>
       </c>
       <c r="O275" s="1" t="s">
         <v>101</v>
@@ -61165,7 +61059,7 @@
         <v>44733</v>
       </c>
       <c r="AD275" s="1" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="AF275" s="1" t="s">
         <v>108</v>
@@ -61222,10 +61116,10 @@
         <v>22</v>
       </c>
       <c r="BD275" s="1" t="s">
-        <v>3213</v>
+        <v>3210</v>
       </c>
       <c r="BH275" s="1" t="s">
-        <v>3214</v>
+        <v>3211</v>
       </c>
       <c r="BN275" s="1" t="s">
         <v>118</v>
@@ -61237,13 +61131,13 @@
         <v>217</v>
       </c>
       <c r="BS275" s="1" t="s">
-        <v>3215</v>
+        <v>3212</v>
       </c>
       <c r="BT275" s="3">
         <v>34412</v>
       </c>
       <c r="BU275" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="BV275" s="1" t="s">
         <v>122</v>
@@ -61264,13 +61158,13 @@
         <v>102</v>
       </c>
       <c r="CD275" s="1" t="s">
-        <v>2827</v>
+        <v>2824</v>
       </c>
       <c r="CE275" s="1" t="s">
-        <v>2828</v>
+        <v>2825</v>
       </c>
       <c r="CF275" s="1" t="s">
-        <v>2829</v>
+        <v>2826</v>
       </c>
       <c r="CH275" s="1" t="s">
         <v>2225</v>
@@ -61314,16 +61208,16 @@
         <v>97</v>
       </c>
       <c r="K276" s="1" t="s">
-        <v>3216</v>
+        <v>3213</v>
       </c>
       <c r="L276" s="1" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
       <c r="M276" s="1" t="s">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="N276" s="1" t="s">
-        <v>3218</v>
+        <v>3215</v>
       </c>
       <c r="O276" s="1" t="s">
         <v>101</v>
@@ -61359,7 +61253,7 @@
         <v>44561</v>
       </c>
       <c r="AD276" s="1" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="AF276" s="1" t="s">
         <v>108</v>
@@ -61416,7 +61310,7 @@
         <v>22</v>
       </c>
       <c r="BD276" s="1" t="s">
-        <v>3219</v>
+        <v>3216</v>
       </c>
       <c r="BN276" s="1" t="s">
         <v>118</v>
@@ -61425,13 +61319,13 @@
         <v>217</v>
       </c>
       <c r="BS276" s="1" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
       <c r="BT276" s="3">
         <v>5480</v>
       </c>
       <c r="BU276" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="BV276" s="1" t="s">
         <v>122</v>
@@ -61458,10 +61352,10 @@
         <v>454</v>
       </c>
       <c r="CE276" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="CF276" s="1" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
       <c r="CH276" s="1" t="s">
         <v>130</v>
@@ -61505,16 +61399,16 @@
         <v>97</v>
       </c>
       <c r="K277" s="1" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
       <c r="L277" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="M277" s="1" t="s">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="N277" s="1" t="s">
-        <v>3226</v>
+        <v>3223</v>
       </c>
       <c r="O277" s="1" t="s">
         <v>101</v>
@@ -61550,7 +61444,7 @@
         <v>44788</v>
       </c>
       <c r="AD277" s="1" t="s">
-        <v>3227</v>
+        <v>3224</v>
       </c>
       <c r="AF277" s="1" t="s">
         <v>108</v>
@@ -61610,10 +61504,10 @@
         <v>22</v>
       </c>
       <c r="BD277" s="1" t="s">
-        <v>3228</v>
+        <v>3225</v>
       </c>
       <c r="BH277" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="BN277" s="1" t="s">
         <v>118</v>
@@ -61628,13 +61522,13 @@
         <v>160</v>
       </c>
       <c r="BS277" s="1" t="s">
-        <v>3230</v>
+        <v>3227</v>
       </c>
       <c r="BT277" s="3">
         <v>35259</v>
       </c>
       <c r="BU277" s="1" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="BV277" s="1" t="s">
         <v>122</v>
@@ -61652,13 +61546,13 @@
         <v>102</v>
       </c>
       <c r="CD277" s="1" t="s">
-        <v>3232</v>
+        <v>3229</v>
       </c>
       <c r="CE277" s="1" t="s">
-        <v>3233</v>
+        <v>3230</v>
       </c>
       <c r="CF277" s="1" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="CH277" s="1" t="s">
         <v>130</v>
@@ -61702,16 +61596,16 @@
         <v>97</v>
       </c>
       <c r="K278" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
       <c r="L278" s="1" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="M278" s="1" t="s">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="N278" s="1" t="s">
-        <v>3237</v>
+        <v>3234</v>
       </c>
       <c r="O278" s="1" t="s">
         <v>101</v>
@@ -61744,16 +61638,16 @@
         <v>44833</v>
       </c>
       <c r="AD278" s="1" t="s">
-        <v>3238</v>
+        <v>3235</v>
       </c>
       <c r="AF278" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AG278" s="1" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
       <c r="AH278" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="AI278" s="1" t="s">
         <v>102</v>
@@ -61804,16 +61698,16 @@
         <v>22</v>
       </c>
       <c r="BD278" s="1" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="BH278" s="1" t="s">
-        <v>3240</v>
+        <v>3237</v>
       </c>
       <c r="BN278" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU278" s="1" t="s">
-        <v>3241</v>
+        <v>3238</v>
       </c>
       <c r="BV278" s="1" t="s">
         <v>122</v>
@@ -61834,13 +61728,13 @@
         <v>93</v>
       </c>
       <c r="CD278" s="1" t="s">
-        <v>3242</v>
+        <v>3239</v>
       </c>
       <c r="CE278" s="1" t="s">
-        <v>3243</v>
+        <v>3240</v>
       </c>
       <c r="CF278" s="1" t="s">
-        <v>3244</v>
+        <v>3241</v>
       </c>
       <c r="CH278" s="1" t="s">
         <v>130</v>
@@ -61884,16 +61778,16 @@
         <v>97</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>3245</v>
+        <v>3242</v>
       </c>
       <c r="L279" s="1" t="s">
-        <v>3246</v>
+        <v>3243</v>
       </c>
       <c r="M279" s="1" t="s">
         <v>103</v>
       </c>
       <c r="N279" s="1" t="s">
-        <v>3247</v>
+        <v>3244</v>
       </c>
       <c r="O279" s="1" t="s">
         <v>101</v>
@@ -61929,10 +61823,10 @@
         <v>108</v>
       </c>
       <c r="AG279" s="1" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
       <c r="AH279" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="AJ279" s="1" t="s">
         <v>111</v>
@@ -61977,13 +61871,13 @@
         <v>22</v>
       </c>
       <c r="BD279" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="BG279" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH279" s="1" t="s">
-        <v>3249</v>
+        <v>3246</v>
       </c>
       <c r="BN279" s="1" t="s">
         <v>118</v>
@@ -61992,13 +61886,13 @@
         <v>119</v>
       </c>
       <c r="BS279" s="1" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
       <c r="BT279" s="3">
         <v>34170</v>
       </c>
       <c r="BU279" s="1" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
       <c r="BV279" s="1" t="s">
         <v>122</v>
@@ -62019,16 +61913,16 @@
         <v>93</v>
       </c>
       <c r="CD279" s="1" t="s">
-        <v>2665</v>
+        <v>2663</v>
       </c>
       <c r="CE279" s="1" t="s">
-        <v>3252</v>
+        <v>3249</v>
       </c>
       <c r="CF279" s="1" t="s">
-        <v>3253</v>
+        <v>3250</v>
       </c>
       <c r="CH279" s="1" t="s">
-        <v>3254</v>
+        <v>3251</v>
       </c>
       <c r="CI279" s="1" t="s">
         <v>130</v>
@@ -62038,6 +61932,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CJ279" xr:uid="{407F3AC1-C319-4FE6-A02B-89E0C0A42166}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>